--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.833399318987432</v>
+        <v>1.833399318987375</v>
       </c>
       <c r="C2">
-        <v>0.2785026764527601</v>
+        <v>0.2785026764527316</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08169089254330331</v>
+        <v>0.08169089254332462</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.590129316619311</v>
+        <v>2.59012931661934</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4502751552176036</v>
+        <v>0.450275155217625</v>
       </c>
       <c r="K2">
-        <v>0.1390029134053563</v>
+        <v>0.1390029134053492</v>
       </c>
       <c r="L2">
-        <v>0.5321253239335277</v>
+        <v>0.5321253239335419</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.580085748196637</v>
+        <v>1.580085748196581</v>
       </c>
       <c r="C3">
-        <v>0.2414281021534777</v>
+        <v>0.2414281021532503</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07314156822210904</v>
+        <v>0.07314156822214457</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3874084715266761</v>
+        <v>0.387408471526669</v>
       </c>
       <c r="K3">
-        <v>0.1206932115264365</v>
+        <v>0.1206932115264223</v>
       </c>
       <c r="L3">
-        <v>0.4595754849920581</v>
+        <v>0.459575484992051</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.427274193800201</v>
+        <v>1.42727419380023</v>
       </c>
       <c r="C4">
-        <v>0.2189870542345602</v>
+        <v>0.2189870542344892</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06803356927457571</v>
+        <v>0.06803356927464321</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.167008622199035</v>
+        <v>2.167008622199077</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3494532007482292</v>
+        <v>0.3494532007482434</v>
       </c>
       <c r="K4">
-        <v>0.1096939602676663</v>
+        <v>0.1096939602676379</v>
       </c>
       <c r="L4">
         <v>0.4158836393722041</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.365590106734601</v>
+        <v>1.365590106734686</v>
       </c>
       <c r="C5">
-        <v>0.2099078276642672</v>
+        <v>0.2099078276645088</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3341238849938861</v>
+        <v>0.3341238849939003</v>
       </c>
       <c r="K5">
-        <v>0.1052649486862798</v>
+        <v>0.1052649486862869</v>
       </c>
       <c r="L5">
-        <v>0.3982645641108888</v>
+        <v>0.3982645641108817</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.355380343861498</v>
+        <v>1.355380343861469</v>
       </c>
       <c r="C6">
-        <v>0.2084037708977746</v>
+        <v>0.2084037708981725</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0656450563125297</v>
+        <v>0.06564505631246931</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>2.093093923546817</v>
+        <v>2.093093923546874</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3315861119357777</v>
+        <v>0.3315861119357848</v>
       </c>
       <c r="K6">
-        <v>0.1045325164028021</v>
+        <v>0.1045325164027844</v>
       </c>
       <c r="L6">
-        <v>0.3953493460950099</v>
+        <v>0.395349346095017</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.426440042354699</v>
+        <v>1.426440042354415</v>
       </c>
       <c r="C7">
-        <v>0.2188643620777384</v>
+        <v>0.2188643620770563</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06800580013597468</v>
+        <v>0.0680058001359356</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>2.166149175395589</v>
+        <v>2.166149175395603</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3492459371217365</v>
+        <v>0.3492459371217009</v>
       </c>
       <c r="K7">
-        <v>0.1096340232145288</v>
+        <v>0.1096340232145145</v>
       </c>
       <c r="L7">
         <v>0.4156453069518804</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.745430060876345</v>
+        <v>1.745430060876373</v>
       </c>
       <c r="C8">
-        <v>0.2656425152374595</v>
+        <v>0.2656425152374879</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07871129144054123</v>
+        <v>0.07871129144054478</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.428449360184544</v>
+        <v>0.4284493601845369</v>
       </c>
       <c r="K8">
-        <v>0.1326343592190682</v>
+        <v>0.1326343592191073</v>
       </c>
       <c r="L8">
-        <v>0.5069145345505532</v>
+        <v>0.5069145345505461</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.39750395082973</v>
+        <v>2.397503950829616</v>
       </c>
       <c r="C9">
-        <v>0.3607280976959828</v>
+        <v>0.3607280976959544</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1010224598633407</v>
+        <v>0.101022459863362</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.191063898624918</v>
+        <v>3.19106389862489</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5901272344782669</v>
+        <v>0.5901272344783024</v>
       </c>
       <c r="K9">
-        <v>0.1800609430789848</v>
+        <v>0.180060943078999</v>
       </c>
       <c r="L9">
-        <v>0.6941394427163772</v>
+        <v>0.6941394427163843</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.900574489313328</v>
+        <v>2.900574489313385</v>
       </c>
       <c r="C10">
         <v>0.4339003988735328</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1185266482485616</v>
+        <v>0.1185266482485261</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>3.737694245176726</v>
+        <v>3.737694245176698</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7147642027034209</v>
+        <v>0.7147642027034138</v>
       </c>
       <c r="K10">
-        <v>0.2169461515428495</v>
+        <v>0.2169461515428281</v>
       </c>
       <c r="L10">
-        <v>0.839050263772215</v>
+        <v>0.8390502637721937</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.13670053204703</v>
+        <v>3.136700532047143</v>
       </c>
       <c r="C11">
-        <v>0.4682458292328135</v>
+        <v>0.4682458292329557</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1268115920837971</v>
+        <v>0.1268115920838646</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>3.997321747994533</v>
+        <v>3.997321747994562</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7732566540704084</v>
+        <v>0.7732566540704298</v>
       </c>
       <c r="K11">
-        <v>0.2343330186659642</v>
+        <v>0.2343330186659784</v>
       </c>
       <c r="L11">
-        <v>0.9071831955687486</v>
+        <v>0.9071831955687628</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.227363229571324</v>
+        <v>3.227363229571381</v>
       </c>
       <c r="C12">
-        <v>0.4814373518451305</v>
+        <v>0.4814373518447326</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1300030206518272</v>
+        <v>0.1300030206518059</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.097492090747437</v>
+        <v>4.097492090747409</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.795715455317918</v>
+        <v>0.7957154553179464</v>
       </c>
       <c r="K12">
-        <v>0.2410203344605009</v>
+        <v>0.2410203344605293</v>
       </c>
       <c r="L12">
         <v>0.9333613534483476</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.207778422248907</v>
+        <v>3.20777842224885</v>
       </c>
       <c r="C13">
-        <v>0.478587475638335</v>
+        <v>0.4785874756385624</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1293131476621099</v>
+        <v>0.1293131476621454</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.075831234688678</v>
+        <v>4.075831234688735</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7908639140184093</v>
+        <v>0.7908639140183951</v>
       </c>
       <c r="K13">
-        <v>0.2395752289668209</v>
+        <v>0.2395752289668351</v>
       </c>
       <c r="L13">
-        <v>0.9277055764035467</v>
+        <v>0.9277055764035396</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>3.144133161242621</v>
       </c>
       <c r="C14">
-        <v>0.4693271728201296</v>
+        <v>0.4693271728201012</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1270730201402053</v>
+        <v>0.1270730201401982</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.005523902895931</v>
+        <v>4.005523902895874</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7750978413349614</v>
+        <v>0.7750978413349401</v>
       </c>
       <c r="K14">
-        <v>0.2348810186217349</v>
+        <v>0.2348810186217634</v>
       </c>
       <c r="L14">
         <v>0.9093289459072054</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.10531744486758</v>
+        <v>3.105317444867637</v>
       </c>
       <c r="C15">
-        <v>0.4636802282470853</v>
+        <v>0.463680228246659</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.125708172120266</v>
+        <v>0.1257081721203335</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>3.96270917554142</v>
+        <v>3.962709175541391</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7654825480810459</v>
+        <v>0.7654825480810672</v>
       </c>
       <c r="K15">
-        <v>0.2320196423063337</v>
+        <v>0.2320196423063763</v>
       </c>
       <c r="L15">
-        <v>0.8981238347914271</v>
+        <v>0.8981238347914342</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.885305999097284</v>
+        <v>2.885305999097568</v>
       </c>
       <c r="C16">
-        <v>0.4316798893441671</v>
+        <v>0.4316798893443945</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1179923307974562</v>
+        <v>0.1179923307974633</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.720970491267167</v>
+        <v>3.720970491267224</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.752333501435146</v>
+        <v>2.75233350143526</v>
       </c>
       <c r="C17">
-        <v>0.4123421064008426</v>
+        <v>0.4123421064011268</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1133466309788638</v>
+        <v>0.1133466309789313</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6780410107320805</v>
+        <v>0.6780410107320947</v>
       </c>
       <c r="K17">
-        <v>0.2060537954451505</v>
+        <v>0.2060537954451718</v>
       </c>
       <c r="L17">
-        <v>0.7963124153301635</v>
+        <v>0.7963124153301706</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676522558188765</v>
+        <v>2.676522558188992</v>
       </c>
       <c r="C18">
-        <v>0.4013169232690643</v>
+        <v>0.4013169232701159</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0.110704350475725</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>3.49310287534928</v>
+        <v>3.493102875349251</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0.6592597403958749</v>
       </c>
       <c r="K18">
-        <v>0.2004906823493613</v>
+        <v>0.2004906823494039</v>
       </c>
       <c r="L18">
-        <v>0.7744675516388924</v>
+        <v>0.7744675516388995</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.650963934519496</v>
+        <v>2.650963934519552</v>
       </c>
       <c r="C19">
-        <v>0.3975997796523245</v>
+        <v>0.3975997796520971</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1098146189636431</v>
+        <v>0.1098146189635685</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>3.465314730311007</v>
+        <v>3.465314730311036</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6529277086437375</v>
+        <v>0.6529277086437446</v>
       </c>
       <c r="K19">
-        <v>0.1986162969018892</v>
+        <v>0.1986162969018963</v>
       </c>
       <c r="L19">
-        <v>0.7671046492555718</v>
+        <v>0.7671046492555291</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>2.766417812269765</v>
       </c>
       <c r="C20">
-        <v>0.4143903407252481</v>
+        <v>0.4143903407249638</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1138380362912912</v>
+        <v>0.113838036291348</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.681530154188529</v>
+        <v>0.6815301541885219</v>
       </c>
       <c r="K20">
-        <v>0.2070878724881524</v>
+        <v>0.207087872488124</v>
       </c>
       <c r="L20">
         <v>0.8003716631774296</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.16279172912283</v>
+        <v>3.162791729123057</v>
       </c>
       <c r="C21">
-        <v>0.4720418172036602</v>
+        <v>0.472041817203916</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1277294642159461</v>
+        <v>0.1277294642159639</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.026122101461993</v>
+        <v>4.026122101461937</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7797198889274028</v>
+        <v>0.7797198889273673</v>
       </c>
       <c r="K21">
-        <v>0.2362568803242908</v>
+        <v>0.236256880324305</v>
       </c>
       <c r="L21">
-        <v>0.9147158382783616</v>
+        <v>0.9147158382783402</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.429228721477841</v>
+        <v>3.429228721477614</v>
       </c>
       <c r="C22">
-        <v>0.5108220528566108</v>
+        <v>0.510822052856355</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1371280957857515</v>
+        <v>0.1371280957857728</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.321454983946523</v>
+        <v>4.321454983946495</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8457230458300273</v>
+        <v>0.8457230458300558</v>
       </c>
       <c r="K22">
-        <v>0.2559317091696869</v>
+        <v>0.255931709169694</v>
       </c>
       <c r="L22">
-        <v>0.9916822377195587</v>
+        <v>0.99168223771958</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.286276267337826</v>
+        <v>3.286276267338053</v>
       </c>
       <c r="C23">
-        <v>0.490011039328806</v>
+        <v>0.4900110393290902</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1320797431915217</v>
+        <v>0.1320797431914755</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>4.16272312582953</v>
+        <v>4.162723125829558</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8103094991062818</v>
+        <v>0.8103094991062392</v>
       </c>
       <c r="K23">
-        <v>0.2453690653037199</v>
+        <v>0.2453690653036418</v>
       </c>
       <c r="L23">
-        <v>0.9503771538743848</v>
+        <v>0.9503771538743919</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.760048326861522</v>
+        <v>2.760048326861295</v>
       </c>
       <c r="C24">
-        <v>0.4134640487379215</v>
+        <v>0.4134640487374099</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1136157834570461</v>
+        <v>0.1136157834570071</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
         <v>3.584078871766195</v>
@@ -1275,10 +1275,10 @@
         <v>0.6799522275562992</v>
       </c>
       <c r="K24">
-        <v>0.2066202005670021</v>
+        <v>0.2066202005670306</v>
       </c>
       <c r="L24">
-        <v>0.7985358766668185</v>
+        <v>0.7985358766668043</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>2.217512500548025</v>
       </c>
       <c r="C25">
-        <v>0.3345252193453803</v>
+        <v>0.3345252193453234</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09481594877114929</v>
+        <v>0.09481594877112443</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
@@ -1313,10 +1313,10 @@
         <v>0.5455195250893041</v>
       </c>
       <c r="K25">
-        <v>0.1669222475162258</v>
+        <v>0.1669222475162897</v>
       </c>
       <c r="L25">
-        <v>0.6423843625614936</v>
+        <v>0.6423843625614865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.833399318987375</v>
+        <v>1.833399318987432</v>
       </c>
       <c r="C2">
-        <v>0.2785026764527316</v>
+        <v>0.2785026764527601</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08169089254332462</v>
+        <v>0.08169089254330331</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.59012931661934</v>
+        <v>2.590129316619311</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.450275155217625</v>
+        <v>0.4502751552176036</v>
       </c>
       <c r="K2">
-        <v>0.1390029134053492</v>
+        <v>0.1390029134053563</v>
       </c>
       <c r="L2">
-        <v>0.5321253239335419</v>
+        <v>0.5321253239335277</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.580085748196581</v>
+        <v>1.580085748196637</v>
       </c>
       <c r="C3">
-        <v>0.2414281021532503</v>
+        <v>0.2414281021534777</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07314156822214457</v>
+        <v>0.07314156822210904</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.387408471526669</v>
+        <v>0.3874084715266761</v>
       </c>
       <c r="K3">
-        <v>0.1206932115264223</v>
+        <v>0.1206932115264365</v>
       </c>
       <c r="L3">
-        <v>0.459575484992051</v>
+        <v>0.4595754849920581</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.42727419380023</v>
+        <v>1.427274193800201</v>
       </c>
       <c r="C4">
-        <v>0.2189870542344892</v>
+        <v>0.2189870542345602</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06803356927464321</v>
+        <v>0.06803356927457571</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.167008622199077</v>
+        <v>2.167008622199035</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3494532007482434</v>
+        <v>0.3494532007482292</v>
       </c>
       <c r="K4">
-        <v>0.1096939602676379</v>
+        <v>0.1096939602676663</v>
       </c>
       <c r="L4">
         <v>0.4158836393722041</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.365590106734686</v>
+        <v>1.365590106734601</v>
       </c>
       <c r="C5">
-        <v>0.2099078276645088</v>
+        <v>0.2099078276642672</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3341238849939003</v>
+        <v>0.3341238849938861</v>
       </c>
       <c r="K5">
-        <v>0.1052649486862869</v>
+        <v>0.1052649486862798</v>
       </c>
       <c r="L5">
-        <v>0.3982645641108817</v>
+        <v>0.3982645641108888</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.355380343861469</v>
+        <v>1.355380343861498</v>
       </c>
       <c r="C6">
-        <v>0.2084037708981725</v>
+        <v>0.2084037708977746</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06564505631246931</v>
+        <v>0.0656450563125297</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>2.093093923546874</v>
+        <v>2.093093923546817</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3315861119357848</v>
+        <v>0.3315861119357777</v>
       </c>
       <c r="K6">
-        <v>0.1045325164027844</v>
+        <v>0.1045325164028021</v>
       </c>
       <c r="L6">
-        <v>0.395349346095017</v>
+        <v>0.3953493460950099</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.426440042354415</v>
+        <v>1.426440042354699</v>
       </c>
       <c r="C7">
-        <v>0.2188643620770563</v>
+        <v>0.2188643620777384</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0680058001359356</v>
+        <v>0.06800580013597468</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.166149175395603</v>
+        <v>2.166149175395589</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3492459371217009</v>
+        <v>0.3492459371217365</v>
       </c>
       <c r="K7">
-        <v>0.1096340232145145</v>
+        <v>0.1096340232145288</v>
       </c>
       <c r="L7">
         <v>0.4156453069518804</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.745430060876373</v>
+        <v>1.745430060876345</v>
       </c>
       <c r="C8">
-        <v>0.2656425152374879</v>
+        <v>0.2656425152374595</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07871129144054478</v>
+        <v>0.07871129144054123</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4284493601845369</v>
+        <v>0.428449360184544</v>
       </c>
       <c r="K8">
-        <v>0.1326343592191073</v>
+        <v>0.1326343592190682</v>
       </c>
       <c r="L8">
-        <v>0.5069145345505461</v>
+        <v>0.5069145345505532</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.397503950829616</v>
+        <v>2.39750395082973</v>
       </c>
       <c r="C9">
-        <v>0.3607280976959544</v>
+        <v>0.3607280976959828</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.101022459863362</v>
+        <v>0.1010224598633407</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.19106389862489</v>
+        <v>3.191063898624918</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5901272344783024</v>
+        <v>0.5901272344782669</v>
       </c>
       <c r="K9">
-        <v>0.180060943078999</v>
+        <v>0.1800609430789848</v>
       </c>
       <c r="L9">
-        <v>0.6941394427163843</v>
+        <v>0.6941394427163772</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.900574489313385</v>
+        <v>2.900574489313328</v>
       </c>
       <c r="C10">
         <v>0.4339003988735328</v>
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1185266482485261</v>
+        <v>0.1185266482485616</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.737694245176698</v>
+        <v>3.737694245176726</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7147642027034138</v>
+        <v>0.7147642027034209</v>
       </c>
       <c r="K10">
-        <v>0.2169461515428281</v>
+        <v>0.2169461515428495</v>
       </c>
       <c r="L10">
-        <v>0.8390502637721937</v>
+        <v>0.839050263772215</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.136700532047143</v>
+        <v>3.13670053204703</v>
       </c>
       <c r="C11">
-        <v>0.4682458292329557</v>
+        <v>0.4682458292328135</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1268115920838646</v>
+        <v>0.1268115920837971</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>3.997321747994562</v>
+        <v>3.997321747994533</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7732566540704298</v>
+        <v>0.7732566540704084</v>
       </c>
       <c r="K11">
-        <v>0.2343330186659784</v>
+        <v>0.2343330186659642</v>
       </c>
       <c r="L11">
-        <v>0.9071831955687628</v>
+        <v>0.9071831955687486</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.227363229571381</v>
+        <v>3.227363229571324</v>
       </c>
       <c r="C12">
-        <v>0.4814373518447326</v>
+        <v>0.4814373518451305</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1300030206518059</v>
+        <v>0.1300030206518272</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.097492090747409</v>
+        <v>4.097492090747437</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7957154553179464</v>
+        <v>0.795715455317918</v>
       </c>
       <c r="K12">
-        <v>0.2410203344605293</v>
+        <v>0.2410203344605009</v>
       </c>
       <c r="L12">
         <v>0.9333613534483476</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.20777842224885</v>
+        <v>3.207778422248907</v>
       </c>
       <c r="C13">
-        <v>0.4785874756385624</v>
+        <v>0.478587475638335</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1293131476621454</v>
+        <v>0.1293131476621099</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.075831234688735</v>
+        <v>4.075831234688678</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7908639140183951</v>
+        <v>0.7908639140184093</v>
       </c>
       <c r="K13">
-        <v>0.2395752289668351</v>
+        <v>0.2395752289668209</v>
       </c>
       <c r="L13">
-        <v>0.9277055764035396</v>
+        <v>0.9277055764035467</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>3.144133161242621</v>
       </c>
       <c r="C14">
-        <v>0.4693271728201012</v>
+        <v>0.4693271728201296</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1270730201401982</v>
+        <v>0.1270730201402053</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.005523902895874</v>
+        <v>4.005523902895931</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7750978413349401</v>
+        <v>0.7750978413349614</v>
       </c>
       <c r="K14">
-        <v>0.2348810186217634</v>
+        <v>0.2348810186217349</v>
       </c>
       <c r="L14">
         <v>0.9093289459072054</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.105317444867637</v>
+        <v>3.10531744486758</v>
       </c>
       <c r="C15">
-        <v>0.463680228246659</v>
+        <v>0.4636802282470853</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1257081721203335</v>
+        <v>0.125708172120266</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>3.962709175541391</v>
+        <v>3.96270917554142</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7654825480810672</v>
+        <v>0.7654825480810459</v>
       </c>
       <c r="K15">
-        <v>0.2320196423063763</v>
+        <v>0.2320196423063337</v>
       </c>
       <c r="L15">
-        <v>0.8981238347914342</v>
+        <v>0.8981238347914271</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.885305999097568</v>
+        <v>2.885305999097284</v>
       </c>
       <c r="C16">
-        <v>0.4316798893443945</v>
+        <v>0.4316798893441671</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1179923307974633</v>
+        <v>0.1179923307974562</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.720970491267224</v>
+        <v>3.720970491267167</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.75233350143526</v>
+        <v>2.752333501435146</v>
       </c>
       <c r="C17">
-        <v>0.4123421064011268</v>
+        <v>0.4123421064008426</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1133466309789313</v>
+        <v>0.1133466309788638</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6780410107320947</v>
+        <v>0.6780410107320805</v>
       </c>
       <c r="K17">
-        <v>0.2060537954451718</v>
+        <v>0.2060537954451505</v>
       </c>
       <c r="L17">
-        <v>0.7963124153301706</v>
+        <v>0.7963124153301635</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676522558188992</v>
+        <v>2.676522558188765</v>
       </c>
       <c r="C18">
-        <v>0.4013169232701159</v>
+        <v>0.4013169232690643</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0.110704350475725</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.493102875349251</v>
+        <v>3.49310287534928</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0.6592597403958749</v>
       </c>
       <c r="K18">
-        <v>0.2004906823494039</v>
+        <v>0.2004906823493613</v>
       </c>
       <c r="L18">
-        <v>0.7744675516388995</v>
+        <v>0.7744675516388924</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.650963934519552</v>
+        <v>2.650963934519496</v>
       </c>
       <c r="C19">
-        <v>0.3975997796520971</v>
+        <v>0.3975997796523245</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1098146189635685</v>
+        <v>0.1098146189636431</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.465314730311036</v>
+        <v>3.465314730311007</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6529277086437446</v>
+        <v>0.6529277086437375</v>
       </c>
       <c r="K19">
-        <v>0.1986162969018963</v>
+        <v>0.1986162969018892</v>
       </c>
       <c r="L19">
-        <v>0.7671046492555291</v>
+        <v>0.7671046492555718</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>2.766417812269765</v>
       </c>
       <c r="C20">
-        <v>0.4143903407249638</v>
+        <v>0.4143903407252481</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.113838036291348</v>
+        <v>0.1138380362912912</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6815301541885219</v>
+        <v>0.681530154188529</v>
       </c>
       <c r="K20">
-        <v>0.207087872488124</v>
+        <v>0.2070878724881524</v>
       </c>
       <c r="L20">
         <v>0.8003716631774296</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.162791729123057</v>
+        <v>3.16279172912283</v>
       </c>
       <c r="C21">
-        <v>0.472041817203916</v>
+        <v>0.4720418172036602</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1277294642159639</v>
+        <v>0.1277294642159461</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.026122101461937</v>
+        <v>4.026122101461993</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7797198889273673</v>
+        <v>0.7797198889274028</v>
       </c>
       <c r="K21">
-        <v>0.236256880324305</v>
+        <v>0.2362568803242908</v>
       </c>
       <c r="L21">
-        <v>0.9147158382783402</v>
+        <v>0.9147158382783616</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.429228721477614</v>
+        <v>3.429228721477841</v>
       </c>
       <c r="C22">
-        <v>0.510822052856355</v>
+        <v>0.5108220528566108</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1371280957857728</v>
+        <v>0.1371280957857515</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.321454983946495</v>
+        <v>4.321454983946523</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8457230458300558</v>
+        <v>0.8457230458300273</v>
       </c>
       <c r="K22">
-        <v>0.255931709169694</v>
+        <v>0.2559317091696869</v>
       </c>
       <c r="L22">
-        <v>0.99168223771958</v>
+        <v>0.9916822377195587</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.286276267338053</v>
+        <v>3.286276267337826</v>
       </c>
       <c r="C23">
-        <v>0.4900110393290902</v>
+        <v>0.490011039328806</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1320797431914755</v>
+        <v>0.1320797431915217</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.162723125829558</v>
+        <v>4.16272312582953</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8103094991062392</v>
+        <v>0.8103094991062818</v>
       </c>
       <c r="K23">
-        <v>0.2453690653036418</v>
+        <v>0.2453690653037199</v>
       </c>
       <c r="L23">
-        <v>0.9503771538743919</v>
+        <v>0.9503771538743848</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.760048326861295</v>
+        <v>2.760048326861522</v>
       </c>
       <c r="C24">
-        <v>0.4134640487374099</v>
+        <v>0.4134640487379215</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1136157834570071</v>
+        <v>0.1136157834570461</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>3.584078871766195</v>
@@ -1275,10 +1275,10 @@
         <v>0.6799522275562992</v>
       </c>
       <c r="K24">
-        <v>0.2066202005670306</v>
+        <v>0.2066202005670021</v>
       </c>
       <c r="L24">
-        <v>0.7985358766668043</v>
+        <v>0.7985358766668185</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>2.217512500548025</v>
       </c>
       <c r="C25">
-        <v>0.3345252193453234</v>
+        <v>0.3345252193453803</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09481594877112443</v>
+        <v>0.09481594877114929</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
@@ -1313,10 +1313,10 @@
         <v>0.5455195250893041</v>
       </c>
       <c r="K25">
-        <v>0.1669222475162897</v>
+        <v>0.1669222475162258</v>
       </c>
       <c r="L25">
-        <v>0.6423843625614865</v>
+        <v>0.6423843625614936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.833399318987432</v>
+        <v>1.833325192613586</v>
       </c>
       <c r="C2">
-        <v>0.2785026764527601</v>
+        <v>0.278458979120856</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08169089254330331</v>
+        <v>0.0816847173715729</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.590129316619311</v>
+        <v>0.8244858804836497</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.755530348005408</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4502751552176036</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1390029134053563</v>
+        <v>0.4502484487441052</v>
       </c>
       <c r="L2">
-        <v>0.5321253239335277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1390001478840759</v>
+      </c>
+      <c r="M2">
+        <v>0.5321117349413527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.580085748196637</v>
+        <v>1.580055461703353</v>
       </c>
       <c r="C3">
-        <v>0.2414281021534777</v>
+        <v>0.2414074089941494</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07314156822210904</v>
+        <v>0.07313834845873046</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.325151655090821</v>
+        <v>0.7340452178479353</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.582776158316847</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3874084715266761</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1206932115264365</v>
+        <v>0.3873969027659925</v>
       </c>
       <c r="L3">
-        <v>0.4595754849920581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1206920353131054</v>
+      </c>
+      <c r="M3">
+        <v>0.4595702217692619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.427274193800201</v>
+        <v>1.427263738269033</v>
       </c>
       <c r="C4">
-        <v>0.2189870542345602</v>
+        <v>0.2189790149878661</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06803356927457571</v>
+        <v>0.06803223512411805</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.167008622199035</v>
+        <v>0.6800023816995804</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.479754349429541</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3494532007482292</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1096939602676663</v>
+        <v>0.3494490002152588</v>
       </c>
       <c r="L4">
-        <v>0.4158836393722041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1096935371627943</v>
+      </c>
+      <c r="M4">
+        <v>0.4158819097617652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.365590106734601</v>
+        <v>1.365586176084719</v>
       </c>
       <c r="C5">
-        <v>0.2099078276642672</v>
+        <v>0.2099046289122839</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06598364307563287</v>
+        <v>0.06598309737355379</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.103570757738837</v>
+        <v>0.6583070841291203</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.438447949462017</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3341238849938861</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1052649486862798</v>
+        <v>0.3341222651480038</v>
       </c>
       <c r="L5">
-        <v>0.3982645641108888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1052647860339491</v>
+      </c>
+      <c r="M5">
+        <v>0.3982639307438163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.355380343861498</v>
+        <v>1.355377408745994</v>
       </c>
       <c r="C6">
-        <v>0.2084037708977746</v>
+        <v>0.2084013582691711</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0656450563125297</v>
+        <v>0.06564464279835036</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>2.093093923546817</v>
+        <v>0.6547230948694107</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.431627353379639</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3315861119357777</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1045325164028021</v>
+        <v>0.3315848968143342</v>
       </c>
       <c r="L6">
-        <v>0.3953493460950099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1045323944470766</v>
+      </c>
+      <c r="M6">
+        <v>0.3953488754252845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.426440042354699</v>
+        <v>1.426429680843597</v>
       </c>
       <c r="C7">
-        <v>0.2188643620777384</v>
+        <v>0.2188563893246993</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06800580013597468</v>
+        <v>0.06800447653504449</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.166149175395589</v>
+        <v>0.6797085236173501</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.479194655300844</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3492459371217365</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1096340232145288</v>
+        <v>0.3492417730239907</v>
       </c>
       <c r="L7">
-        <v>0.4156453069518804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1096336037986063</v>
+      </c>
+      <c r="M7">
+        <v>0.4156435934521596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.745430060876345</v>
+        <v>1.745372666198421</v>
       </c>
       <c r="C8">
-        <v>0.2656425152374595</v>
+        <v>0.2656070894106932</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07871129144054123</v>
+        <v>0.07870612203231886</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.497732516624225</v>
+        <v>0.7929637343837186</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.695274292654432</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.428449360184544</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1326343592190682</v>
+        <v>0.4284283130845949</v>
       </c>
       <c r="L8">
-        <v>0.5069145345505532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1326321941304123</v>
+      </c>
+      <c r="M8">
+        <v>0.5069041781393295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.39750395082973</v>
+        <v>2.397286214920939</v>
       </c>
       <c r="C9">
-        <v>0.3607280976959828</v>
+        <v>0.3606243542321579</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1010224598633407</v>
+        <v>0.1010101837096684</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.191063898624918</v>
+        <v>1.029205777553443</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.147784155514444</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5901272344782669</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1800609430789848</v>
+        <v>0.5900545119791616</v>
       </c>
       <c r="L9">
-        <v>0.6941394427163772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1800530686363473</v>
+      </c>
+      <c r="M9">
+        <v>0.694096788883364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.900574489313328</v>
+        <v>2.900177593461819</v>
       </c>
       <c r="C10">
-        <v>0.4339003988735328</v>
+        <v>0.4337329695480605</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1185266482485616</v>
+        <v>0.1185091773521805</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.737694245176726</v>
+        <v>1.215086947712308</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.504998847502492</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7147642027034209</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2169461515428495</v>
+        <v>0.7146367238710241</v>
       </c>
       <c r="L10">
-        <v>0.839050263772215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2169317923577978</v>
+      </c>
+      <c r="M10">
+        <v>0.8389697581765887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.13670053204703</v>
+        <v>3.136203174588331</v>
       </c>
       <c r="C11">
-        <v>0.4682458292328135</v>
+        <v>0.4680451851013174</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1268115920837971</v>
+        <v>0.1267916873965049</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>3.997321747994533</v>
+        <v>1.303286473871651</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.674764180425484</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7732566540704084</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2343330186659642</v>
+        <v>0.773099069523937</v>
       </c>
       <c r="L11">
-        <v>0.9071831955687486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2343149466780758</v>
+      </c>
+      <c r="M11">
+        <v>0.9070810321612086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.227363229571324</v>
+        <v>3.226824509946425</v>
       </c>
       <c r="C12">
-        <v>0.4814373518451305</v>
+        <v>0.4812233826722263</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1300030206518272</v>
+        <v>0.1299821754340265</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.097492090747437</v>
+        <v>1.337303008711785</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.740278722934335</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.795715455317918</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2410203344605009</v>
+        <v>0.7955455603462269</v>
       </c>
       <c r="L12">
-        <v>0.9333613534483476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2410007179529359</v>
+      </c>
+      <c r="M12">
+        <v>0.9332502045280435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.207778422248907</v>
+        <v>3.20724876912459</v>
       </c>
       <c r="C13">
-        <v>0.478587475638335</v>
+        <v>0.4783764119716807</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1293131476621099</v>
+        <v>0.1292925060108168</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.075831234688678</v>
+        <v>1.329947845630613</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.726111168376178</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7908639140184093</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2395752289668209</v>
+        <v>0.7906967137473302</v>
       </c>
       <c r="L13">
-        <v>0.9277055764035467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2395559517949835</v>
+      </c>
+      <c r="M13">
+        <v>0.9275964002160606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.144133161242621</v>
+        <v>3.143632471260787</v>
       </c>
       <c r="C14">
-        <v>0.4693271728201296</v>
+        <v>0.4691254482910381</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1270730201402053</v>
+        <v>0.1270530385125141</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.005523902895931</v>
+        <v>1.306072077745284</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.680128343549939</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7750978413349614</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2348810186217349</v>
+        <v>0.7749392632935326</v>
       </c>
       <c r="L14">
-        <v>0.9093289459072054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2348628225318521</v>
+      </c>
+      <c r="M14">
+        <v>0.9092260599207691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.10531744486758</v>
+        <v>3.104834043649589</v>
       </c>
       <c r="C15">
-        <v>0.4636802282470853</v>
+        <v>0.4634841223482056</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.125708172120266</v>
+        <v>0.1256885920133399</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>3.96270917554142</v>
+        <v>1.291530882748248</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.652128361065081</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7654825480810459</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2320196423063337</v>
+        <v>0.7653291274887764</v>
       </c>
       <c r="L15">
-        <v>0.8981238347914271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2320020893938235</v>
+      </c>
+      <c r="M15">
+        <v>0.8980246947465673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.885305999097284</v>
+        <v>2.884915239120858</v>
       </c>
       <c r="C16">
-        <v>0.4316798893441671</v>
+        <v>0.4315145341781204</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1179923307974562</v>
+        <v>0.1179750168383116</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.720970491267167</v>
+        <v>1.209403878292363</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.494065572736559</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7109818761200799</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2158234140575814</v>
+        <v>0.7108562470177304</v>
       </c>
       <c r="L16">
-        <v>0.8346470298776154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2158092798431142</v>
+      </c>
+      <c r="M16">
+        <v>0.8345678385729087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.752333501435146</v>
+        <v>2.751994332063873</v>
       </c>
       <c r="C17">
-        <v>0.4123421064008426</v>
+        <v>0.412194439544237</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1133466309788638</v>
+        <v>0.1133306836149259</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.57566546949252</v>
+        <v>1.160016787065814</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.399082628130543</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6780410107320805</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2060537954451505</v>
+        <v>0.6779309939110476</v>
       </c>
       <c r="L17">
-        <v>0.7963124153301635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2060415445621757</v>
+      </c>
+      <c r="M17">
+        <v>0.7962442305743309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676522558188765</v>
+        <v>2.676211319473907</v>
       </c>
       <c r="C18">
-        <v>0.4013169232690643</v>
+        <v>0.4011790404363182</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.110704350475725</v>
+        <v>0.110689183132795</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.49310287534928</v>
+        <v>1.131947035552571</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.345122530006876</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6592597403958749</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2004906823493613</v>
+        <v>0.6591582256570376</v>
       </c>
       <c r="L18">
-        <v>0.7744675516388924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2004794449741425</v>
+      </c>
+      <c r="M18">
+        <v>0.7744052900903569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.650963934519496</v>
+        <v>2.650661869470753</v>
       </c>
       <c r="C19">
-        <v>0.3975997796523245</v>
+        <v>0.3974651463176144</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1098146189636431</v>
+        <v>0.1097997149197774</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.465314730311007</v>
+        <v>1.122498235338981</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.326962748132473</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6529277086437375</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1986162969018892</v>
+        <v>0.652828994962448</v>
       </c>
       <c r="L19">
-        <v>0.7671046492555718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1986053914815358</v>
+      </c>
+      <c r="M19">
+        <v>0.7670443271787448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.766417812269765</v>
+        <v>2.766073335290457</v>
       </c>
       <c r="C20">
-        <v>0.4143903407252481</v>
+        <v>0.4142408321705204</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1138380362912912</v>
+        <v>0.1138219441288371</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.591026701978137</v>
+        <v>1.165238675138283</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.409122974721328</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.681530154188529</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2070878724881524</v>
+        <v>0.6814185259283647</v>
       </c>
       <c r="L20">
-        <v>0.8003716631774296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2070754285268848</v>
+      </c>
+      <c r="M20">
+        <v>0.8003023498867989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.16279172912283</v>
+        <v>3.162282627397246</v>
       </c>
       <c r="C21">
-        <v>0.4720418172036602</v>
+        <v>0.4718373710559831</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1277294642159461</v>
+        <v>0.1277092893183536</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.026122101461993</v>
+        <v>1.313067401652717</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.693599690483893</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7797198889274028</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2362568803242908</v>
+        <v>0.7795588044912591</v>
       </c>
       <c r="L21">
-        <v>0.9147158382783616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2362383707189082</v>
+      </c>
+      <c r="M21">
+        <v>0.9146111273099606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.429228721477841</v>
+        <v>3.428592308418899</v>
       </c>
       <c r="C22">
-        <v>0.5108220528566108</v>
+        <v>0.510577260865432</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1371280957857515</v>
+        <v>0.1371051364272056</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.321454983946523</v>
+        <v>1.413333929276916</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.886785292386293</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8457230458300273</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2559317091696869</v>
+        <v>0.8455242329552632</v>
       </c>
       <c r="L22">
-        <v>0.9916822377195587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2559084089980601</v>
+      </c>
+      <c r="M22">
+        <v>0.9915497293592992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.286276267337826</v>
+        <v>3.28570983692174</v>
       </c>
       <c r="C23">
-        <v>0.490011039328806</v>
+        <v>0.4897882399138496</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1320797431915217</v>
+        <v>0.1320582841407223</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.16272312582953</v>
+        <v>1.359450978973285</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.782946096656474</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8103094991062818</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2453690653037199</v>
+        <v>0.8101313802616374</v>
       </c>
       <c r="L23">
-        <v>0.9503771538743848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2453484089626556</v>
+      </c>
+      <c r="M23">
+        <v>0.9502599650651504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.760048326861522</v>
+        <v>2.759706254795333</v>
       </c>
       <c r="C24">
-        <v>0.4134640487379215</v>
+        <v>0.4133153740049806</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1136157834570461</v>
+        <v>0.1135997567749527</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>3.584078871766195</v>
+        <v>1.162876858665925</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.404581732689309</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6799522275562992</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2066202005670021</v>
+        <v>0.6798413292912002</v>
       </c>
       <c r="L24">
-        <v>0.7985358766668185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.206607844109989</v>
+      </c>
+      <c r="M24">
+        <v>0.7984670748364451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.217512500548025</v>
+        <v>2.217347271842641</v>
       </c>
       <c r="C25">
-        <v>0.3345252193453803</v>
+        <v>0.3344419421803764</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09481594877114929</v>
+        <v>0.0948055695383303</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.997833483132794</v>
+        <v>0.9634274319938214</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.021595452208146</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5455195250893041</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1669222475162258</v>
+        <v>0.5454632777943971</v>
       </c>
       <c r="L25">
-        <v>0.6423843625614936</v>
+        <v>0.1669162439476537</v>
+      </c>
+      <c r="M25">
+        <v>0.6423525286071623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.833325192613586</v>
+        <v>2.87668262356874</v>
       </c>
       <c r="C2">
-        <v>0.278458979120856</v>
+        <v>0.7092553392317029</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0816847173715729</v>
+        <v>0.1198686716549311</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.076094207975871</v>
       </c>
       <c r="G2">
-        <v>0.8244858804836497</v>
+        <v>0.0007847848109239608</v>
       </c>
       <c r="H2">
-        <v>1.755530348005408</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03395244410440057</v>
       </c>
       <c r="K2">
-        <v>0.4502484487441052</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1390001478840759</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5321117349413527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8572402239777475</v>
+      </c>
+      <c r="N2">
+        <v>0.7121566062326181</v>
+      </c>
+      <c r="O2">
+        <v>1.069798809983169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.580055461703353</v>
+        <v>2.484681351879658</v>
       </c>
       <c r="C3">
-        <v>0.2414074089941494</v>
+        <v>0.6120574750500793</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07313834845873046</v>
+        <v>0.1116441657664851</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.889602403105414</v>
       </c>
       <c r="G3">
-        <v>0.7340452178479353</v>
+        <v>0.0007923624716505154</v>
       </c>
       <c r="H3">
-        <v>1.582776158316847</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03448820219206183</v>
       </c>
       <c r="K3">
-        <v>0.3873969027659925</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1206920353131054</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4595702217692619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7462693972765351</v>
+      </c>
+      <c r="N3">
+        <v>0.7641976170326892</v>
+      </c>
+      <c r="O3">
+        <v>0.9728342266197387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.427263738269033</v>
+        <v>2.24717821977498</v>
       </c>
       <c r="C4">
-        <v>0.2189790149878661</v>
+        <v>0.5530934904255105</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06803223512411805</v>
+        <v>0.1066804779486006</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.779246587626488</v>
       </c>
       <c r="G4">
-        <v>0.6800023816995804</v>
+        <v>0.000797139236185509</v>
       </c>
       <c r="H4">
-        <v>1.479754349429541</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03493189796410157</v>
       </c>
       <c r="K4">
-        <v>0.3494490002152588</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1096935371627943</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4158819097617652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6790351144729954</v>
+      </c>
+      <c r="N4">
+        <v>0.7977365684074726</v>
+      </c>
+      <c r="O4">
+        <v>0.9161441301246214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.365586176084719</v>
+        <v>2.151078981628189</v>
       </c>
       <c r="C5">
-        <v>0.2099046289122839</v>
+        <v>0.5292152944773534</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06598309737355379</v>
+        <v>0.1046781999711257</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.735227180597875</v>
       </c>
       <c r="G5">
-        <v>0.6583070841291203</v>
+        <v>0.0007991183640506318</v>
       </c>
       <c r="H5">
-        <v>1.438447949462017</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03513951254755376</v>
       </c>
       <c r="K5">
-        <v>0.3341222651480038</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1052647860339491</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3982639307438163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6518347144785324</v>
+      </c>
+      <c r="N5">
+        <v>0.8117848188122991</v>
+      </c>
+      <c r="O5">
+        <v>0.8936911789894424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.355377408745994</v>
+        <v>2.13515993880776</v>
       </c>
       <c r="C6">
-        <v>0.2084013582691711</v>
+        <v>0.5252585765523747</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06564464279835036</v>
+        <v>0.1043469256048866</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.727972692710139</v>
       </c>
       <c r="G6">
-        <v>0.6547230948694107</v>
+        <v>0.000799449001092511</v>
       </c>
       <c r="H6">
-        <v>1.431627353379639</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03517554920475874</v>
       </c>
       <c r="K6">
-        <v>0.3315848968143342</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1045323944470766</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3953488754252845</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6473292756149007</v>
+      </c>
+      <c r="N6">
+        <v>0.8141400282130498</v>
+      </c>
+      <c r="O6">
+        <v>0.8900002043200033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.426429680843597</v>
+        <v>2.245879564333791</v>
       </c>
       <c r="C7">
-        <v>0.2188563893246993</v>
+        <v>0.5527708906902831</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06800447653504449</v>
+        <v>0.1066533931988687</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.778649190886057</v>
       </c>
       <c r="G7">
-        <v>0.6797085236173501</v>
+        <v>0.0007971657938360316</v>
       </c>
       <c r="H7">
-        <v>1.479194655300844</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03493459197237492</v>
       </c>
       <c r="K7">
-        <v>0.3492417730239907</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1096336037986063</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4156435934521596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6786675146071985</v>
+      </c>
+      <c r="N7">
+        <v>0.7979245084870321</v>
+      </c>
+      <c r="O7">
+        <v>0.915838779898543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.745372666198421</v>
+        <v>2.740786025365367</v>
       </c>
       <c r="C8">
-        <v>0.2656070894106932</v>
+        <v>0.6755741059257048</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07870612203231886</v>
+        <v>0.1170142150942795</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.010872462124397</v>
       </c>
       <c r="G8">
-        <v>0.7929637343837186</v>
+        <v>0.0007873726957986203</v>
       </c>
       <c r="H8">
-        <v>1.695274292654432</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03411207104061731</v>
       </c>
       <c r="K8">
-        <v>0.4284283130845949</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1326321941304123</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5069041781393295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8187721658368403</v>
+      </c>
+      <c r="N8">
+        <v>0.7297600697601681</v>
+      </c>
+      <c r="O8">
+        <v>1.035732520447795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.397286214920939</v>
+        <v>3.742396826916888</v>
       </c>
       <c r="C9">
-        <v>0.3606243542321579</v>
+        <v>0.9235718716235226</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1010101837096684</v>
+        <v>0.1380760296460508</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>2.503776275556206</v>
       </c>
       <c r="G9">
-        <v>1.029205777553443</v>
+        <v>0.000769085162483193</v>
       </c>
       <c r="H9">
-        <v>2.147784155514444</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03351192442963935</v>
       </c>
       <c r="K9">
-        <v>0.5900545119791616</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1800530686363473</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.694096788883364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.102110577886954</v>
+      </c>
+      <c r="N9">
+        <v>0.6095528107087453</v>
+      </c>
+      <c r="O9">
+        <v>1.296767555119175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.900177593461819</v>
+        <v>4.506306639771026</v>
       </c>
       <c r="C10">
-        <v>0.4337329695480605</v>
+        <v>1.112505176811794</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1185091773521805</v>
+        <v>0.1540974908952499</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.895871659499591</v>
       </c>
       <c r="G10">
-        <v>1.215086947712308</v>
+        <v>0.0007561036625570727</v>
       </c>
       <c r="H10">
-        <v>2.504998847502492</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03384894487397005</v>
       </c>
       <c r="K10">
-        <v>0.7146367238710241</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2169317923577978</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8389697581765887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.317748454973753</v>
+      </c>
+      <c r="N10">
+        <v>0.5308086929074669</v>
+      </c>
+      <c r="O10">
+        <v>1.509544168325732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.136203174588331</v>
+        <v>4.86223605216378</v>
       </c>
       <c r="C11">
-        <v>0.4680451851013174</v>
+        <v>1.200523155334281</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1267916873965049</v>
+        <v>0.1615283469173754</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>3.082553514408914</v>
       </c>
       <c r="G11">
-        <v>1.303286473871651</v>
+        <v>0.0007502702121124916</v>
       </c>
       <c r="H11">
-        <v>2.674764180425484</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03421294397007202</v>
       </c>
       <c r="K11">
-        <v>0.773099069523937</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2343149466780758</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9070810321612086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.418036686728627</v>
+      </c>
+      <c r="N11">
+        <v>0.4974152207334548</v>
+      </c>
+      <c r="O11">
+        <v>1.612230904133853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.226824509946425</v>
+        <v>4.998449824992235</v>
       </c>
       <c r="C12">
-        <v>0.4812233826722263</v>
+        <v>1.234209281817868</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1299821754340265</v>
+        <v>0.1643648866143508</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>3.154612168295643</v>
       </c>
       <c r="G12">
-        <v>1.337303008711785</v>
+        <v>0.000748069068713957</v>
       </c>
       <c r="H12">
-        <v>2.740278722934335</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03438514915784552</v>
       </c>
       <c r="K12">
-        <v>0.7955455603462269</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2410007179529359</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9332502045280435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.456382301382448</v>
+      </c>
+      <c r="N12">
+        <v>0.4851531022267146</v>
+      </c>
+      <c r="O12">
+        <v>1.652090810243607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.20724876912459</v>
+        <v>4.969046303137247</v>
       </c>
       <c r="C13">
-        <v>0.4783764119716807</v>
+        <v>1.226937552245374</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1292925060108168</v>
+        <v>0.1637529439088503</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>3.139029341349755</v>
       </c>
       <c r="G13">
-        <v>1.329947845630613</v>
+        <v>0.0007485428176120889</v>
       </c>
       <c r="H13">
-        <v>2.726111168376178</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.03434646230556737</v>
       </c>
       <c r="K13">
-        <v>0.7906967137473302</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2395559517949835</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9275964002160606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.44810657423578</v>
+      </c>
+      <c r="N13">
+        <v>0.4877763312570096</v>
+      </c>
+      <c r="O13">
+        <v>1.643460715642121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.143632471260787</v>
+        <v>4.873412401764199</v>
       </c>
       <c r="C14">
-        <v>0.4691254482910381</v>
+        <v>1.203287047523986</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1270530385125141</v>
+        <v>0.1617612440683054</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>3.088453389416003</v>
       </c>
       <c r="G14">
-        <v>1.306072077745284</v>
+        <v>0.0007500889805912529</v>
       </c>
       <c r="H14">
-        <v>2.680128343549939</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03422639729926402</v>
       </c>
       <c r="K14">
-        <v>0.7749392632935326</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2348628225318521</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9092260599207691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.421183687356077</v>
+      </c>
+      <c r="N14">
+        <v>0.4963985161379689</v>
+      </c>
+      <c r="O14">
+        <v>1.615489881717068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.104834043649589</v>
+        <v>4.815027239990968</v>
       </c>
       <c r="C15">
-        <v>0.4634841223482056</v>
+        <v>1.188848589193526</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1256885920133399</v>
+        <v>0.1605442853818104</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>3.057657505703105</v>
       </c>
       <c r="G15">
-        <v>1.291530882748248</v>
+        <v>0.0007510369944206819</v>
       </c>
       <c r="H15">
-        <v>2.652128361065081</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03415745999038577</v>
       </c>
       <c r="K15">
-        <v>0.7653291274887764</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2320020893938235</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8980246947465673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.404742339633898</v>
+      </c>
+      <c r="N15">
+        <v>0.5017308551062882</v>
+      </c>
+      <c r="O15">
+        <v>1.598487922356099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.884915239120858</v>
+        <v>4.483233474458928</v>
       </c>
       <c r="C16">
-        <v>0.4315145341781204</v>
+        <v>1.106799443467594</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1179750168383116</v>
+        <v>0.1536149134580818</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.883853004582903</v>
       </c>
       <c r="G16">
-        <v>1.209403878292363</v>
+        <v>0.0007564861338935808</v>
       </c>
       <c r="H16">
-        <v>2.494065572736559</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03382973162281644</v>
       </c>
       <c r="K16">
-        <v>0.7108562470177304</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2158092798431142</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8345678385729087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.311242926093769</v>
+      </c>
+      <c r="N16">
+        <v>0.5330427083191118</v>
+      </c>
+      <c r="O16">
+        <v>1.502962450378234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.751994332063873</v>
+        <v>4.28199399436653</v>
       </c>
       <c r="C17">
-        <v>0.412194439544237</v>
+        <v>1.057034252150885</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1133306836149259</v>
+        <v>0.149401938373547</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>2.779474412306485</v>
       </c>
       <c r="G17">
-        <v>1.160016787065814</v>
+        <v>0.0007598457464909059</v>
       </c>
       <c r="H17">
-        <v>2.399082628130543</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.0336853684224856</v>
       </c>
       <c r="K17">
-        <v>0.6779309939110476</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2060415445621757</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7962442305743309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.254481762092254</v>
+      </c>
+      <c r="N17">
+        <v>0.552896272755234</v>
+      </c>
+      <c r="O17">
+        <v>1.445955697220356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676211319473907</v>
+        <v>4.167024499927152</v>
       </c>
       <c r="C18">
-        <v>0.4011790404363182</v>
+        <v>1.028601714801596</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.110689183132795</v>
+        <v>0.1469920297158538</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.720209976348229</v>
       </c>
       <c r="G18">
-        <v>1.131947035552571</v>
+        <v>0.0007617850394505749</v>
       </c>
       <c r="H18">
-        <v>2.345122530006876</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03362189129506277</v>
       </c>
       <c r="K18">
-        <v>0.6591582256570376</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2004794449741425</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7744052900903569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.222037162059763</v>
+      </c>
+      <c r="N18">
+        <v>0.5645417324288644</v>
+      </c>
+      <c r="O18">
+        <v>1.413713152925709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.650661869470753</v>
+        <v>4.128225192778302</v>
       </c>
       <c r="C19">
-        <v>0.3974651463176144</v>
+        <v>1.019006124722239</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1097997149197774</v>
+        <v>0.1461782962752451</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.700271673579721</v>
       </c>
       <c r="G19">
-        <v>1.122498235338981</v>
+        <v>0.0007624429121204331</v>
       </c>
       <c r="H19">
-        <v>2.326962748132473</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03360364276456806</v>
       </c>
       <c r="K19">
-        <v>0.652828994962448</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1986053914815358</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7670443271787448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.211085310540241</v>
+      </c>
+      <c r="N19">
+        <v>0.5685225654498787</v>
+      </c>
+      <c r="O19">
+        <v>1.402886579443148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.766073335290457</v>
+        <v>4.303334241892685</v>
       </c>
       <c r="C20">
-        <v>0.4142408321705204</v>
+        <v>1.062311670453056</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1138219441288371</v>
+        <v>0.1498490273135609</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.790504687782914</v>
       </c>
       <c r="G20">
-        <v>1.165238675138283</v>
+        <v>0.0007594874095494691</v>
       </c>
       <c r="H20">
-        <v>2.409122974721328</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03369868435261125</v>
       </c>
       <c r="K20">
-        <v>0.6814185259283647</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2070754285268848</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8003023498867989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.260502718183005</v>
+      </c>
+      <c r="N20">
+        <v>0.550759180733646</v>
+      </c>
+      <c r="O20">
+        <v>1.451966760118097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.162282627397246</v>
+        <v>4.901461667195633</v>
       </c>
       <c r="C21">
-        <v>0.4718373710559831</v>
+        <v>1.21022362367529</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1277092893183536</v>
+        <v>0.1623456221412454</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.103270228751427</v>
       </c>
       <c r="G21">
-        <v>1.313067401652717</v>
+        <v>0.0007496346430902577</v>
       </c>
       <c r="H21">
-        <v>2.693599690483893</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.03426069534277332</v>
       </c>
       <c r="K21">
-        <v>0.7795588044912591</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2362383707189082</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9146111273099606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.429081130528104</v>
+      </c>
+      <c r="N21">
+        <v>0.4938552753763652</v>
+      </c>
+      <c r="O21">
+        <v>1.623678046158489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.428592308418899</v>
+        <v>5.300836827947705</v>
       </c>
       <c r="C22">
-        <v>0.510577260865432</v>
+        <v>1.308998110781658</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1371051364272056</v>
+        <v>0.1706459696910159</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>3.31573922012177</v>
       </c>
       <c r="G22">
-        <v>1.413333929276916</v>
+        <v>0.0007432397082676393</v>
       </c>
       <c r="H22">
-        <v>2.886785292386293</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03483063374260098</v>
       </c>
       <c r="K22">
-        <v>0.8455242329552632</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2559084089980601</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9915497293592992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.541435166659369</v>
+      </c>
+      <c r="N22">
+        <v>0.4589184292281949</v>
+      </c>
+      <c r="O22">
+        <v>1.741653792487639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.28570983692174</v>
+        <v>5.086828095185979</v>
       </c>
       <c r="C23">
-        <v>0.4897882399138496</v>
+        <v>1.256066494318929</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1320582841407223</v>
+        <v>0.1662029736285149</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>3.201541182589693</v>
       </c>
       <c r="G23">
-        <v>1.359450978973285</v>
+        <v>0.0007466496438590872</v>
       </c>
       <c r="H23">
-        <v>2.782946096656474</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03450640824437201</v>
       </c>
       <c r="K23">
-        <v>0.8101313802616374</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2453484089626556</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9502599650651504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.481251049831144</v>
+      </c>
+      <c r="N23">
+        <v>0.477346235939919</v>
+      </c>
+      <c r="O23">
+        <v>1.678115116020493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.759706254795333</v>
+        <v>4.293684071645544</v>
       </c>
       <c r="C24">
-        <v>0.4133153740049806</v>
+        <v>1.059925199057346</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1135997567749527</v>
+        <v>0.1496468606021217</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.785515594821703</v>
       </c>
       <c r="G24">
-        <v>1.162876858665925</v>
+        <v>0.000759649389201653</v>
       </c>
       <c r="H24">
-        <v>2.404581732689309</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03369260372300431</v>
       </c>
       <c r="K24">
-        <v>0.6798413292912002</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.206607844109989</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7984670748364451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.257780061829919</v>
+      </c>
+      <c r="N24">
+        <v>0.5517246418656008</v>
+      </c>
+      <c r="O24">
+        <v>1.449247512800042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.217347271842641</v>
+        <v>3.467228610305312</v>
       </c>
       <c r="C25">
-        <v>0.3344419421803764</v>
+        <v>0.8554864111354163</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0948055695383303</v>
+        <v>0.1322894341906107</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>2.365729464506984</v>
       </c>
       <c r="G25">
-        <v>0.9634274319938214</v>
+        <v>0.0007739444294032699</v>
       </c>
       <c r="H25">
-        <v>2.021595452208146</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0335504419670265</v>
       </c>
       <c r="K25">
-        <v>0.5454632777943971</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1669162439476537</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6423525286071623</v>
+        <v>1.024323843903375</v>
+      </c>
+      <c r="N25">
+        <v>0.6404991837755425</v>
+      </c>
+      <c r="O25">
+        <v>1.22287396797941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.87668262356874</v>
+        <v>2.984404442888263</v>
       </c>
       <c r="C2">
-        <v>0.7092553392317029</v>
+        <v>0.4885191501294059</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1198686716549311</v>
+        <v>0.06329873514648732</v>
       </c>
       <c r="F2">
-        <v>2.076094207975871</v>
+        <v>1.315360459194522</v>
       </c>
       <c r="G2">
-        <v>0.0007847848109239608</v>
+        <v>0.8213946817867708</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.525557674722009</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4702629422351308</v>
       </c>
       <c r="J2">
-        <v>0.03395244410440057</v>
+        <v>0.02381694102303555</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4328703920864427</v>
       </c>
       <c r="M2">
-        <v>0.8572402239777475</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7121566062326181</v>
+        <v>0.6883870624055142</v>
       </c>
       <c r="O2">
-        <v>1.069798809983169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.484681351879658</v>
+        <v>2.593302322204806</v>
       </c>
       <c r="C3">
-        <v>0.6120574750500793</v>
+        <v>0.4294181504459971</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1116441657664851</v>
+        <v>0.06201526946296099</v>
       </c>
       <c r="F3">
-        <v>1.889602403105414</v>
+        <v>1.222781203097071</v>
       </c>
       <c r="G3">
-        <v>0.0007923624716505154</v>
+        <v>0.7527255833421691</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5016466452428148</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4567292348634169</v>
       </c>
       <c r="J3">
-        <v>0.03448820219206183</v>
+        <v>0.02435025116252554</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3870506026064504</v>
       </c>
       <c r="M3">
-        <v>0.7462693972765351</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7641976170326892</v>
+        <v>0.7264614827696292</v>
       </c>
       <c r="O3">
-        <v>0.9728342266197387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.24717821977498</v>
+        <v>2.354670966565038</v>
       </c>
       <c r="C4">
-        <v>0.5530934904255105</v>
+        <v>0.3932812317971468</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1066804779486006</v>
+        <v>0.06127316802302119</v>
       </c>
       <c r="F4">
-        <v>1.779246587626488</v>
+        <v>1.168377968801423</v>
       </c>
       <c r="G4">
-        <v>0.000797139236185509</v>
+        <v>0.7126235970545594</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4881398965265333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4496675348924981</v>
       </c>
       <c r="J4">
-        <v>0.03493189796410157</v>
+        <v>0.02469751382336938</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3592598921338492</v>
       </c>
       <c r="M4">
-        <v>0.6790351144729954</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7977365684074726</v>
+        <v>0.7510128508681042</v>
       </c>
       <c r="O4">
-        <v>0.9161441301246214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.151078981628189</v>
+        <v>2.257747903755899</v>
       </c>
       <c r="C5">
-        <v>0.5292152944773534</v>
+        <v>0.3785821890270711</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1046781999711257</v>
+        <v>0.06098200566180445</v>
       </c>
       <c r="F5">
-        <v>1.735227180597875</v>
+        <v>1.14678122552202</v>
       </c>
       <c r="G5">
-        <v>0.0007991183640506318</v>
+        <v>0.6967600485883736</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4829127918778653</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4470850347867739</v>
       </c>
       <c r="J5">
-        <v>0.03513951254755376</v>
+        <v>0.02484391667071328</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.348013813793699</v>
       </c>
       <c r="M5">
-        <v>0.6518347144785324</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8117848188122991</v>
+        <v>0.7613034847916076</v>
       </c>
       <c r="O5">
-        <v>0.8936911789894424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.13515993880776</v>
+        <v>2.241671682980041</v>
       </c>
       <c r="C6">
-        <v>0.5252585765523747</v>
+        <v>0.3761427502491586</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1043469256048866</v>
+        <v>0.06093432930336284</v>
       </c>
       <c r="F6">
-        <v>1.727972692710139</v>
+        <v>1.143228565914754</v>
       </c>
       <c r="G6">
-        <v>0.000799449001092511</v>
+        <v>0.6941536872066933</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4820610494117972</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4466735182843777</v>
       </c>
       <c r="J6">
-        <v>0.03517554920475874</v>
+        <v>0.02486851967094417</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3461509679784314</v>
       </c>
       <c r="M6">
-        <v>0.6473292756149007</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8141400282130498</v>
+        <v>0.763029233417587</v>
       </c>
       <c r="O6">
-        <v>0.8900002043200033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.245879564333791</v>
+        <v>2.353362601522974</v>
       </c>
       <c r="C7">
-        <v>0.5527708906902831</v>
+        <v>0.3930828998605307</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1066533931988687</v>
+        <v>0.0612691961432823</v>
       </c>
       <c r="F7">
-        <v>1.778649190886057</v>
+        <v>1.168084439541531</v>
       </c>
       <c r="G7">
-        <v>0.0007971657938360316</v>
+        <v>0.7124077699400715</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4880683038570481</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4496315349510596</v>
       </c>
       <c r="J7">
-        <v>0.03493459197237492</v>
+        <v>0.02469946857405247</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3591079136589457</v>
       </c>
       <c r="M7">
-        <v>0.6786675146071985</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7979245084870321</v>
+        <v>0.7511504888673919</v>
       </c>
       <c r="O7">
-        <v>0.915838779898543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.740786025365367</v>
+        <v>2.849203580818141</v>
       </c>
       <c r="C8">
-        <v>0.6755741059257048</v>
+        <v>0.4681028312964486</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1170142150942795</v>
+        <v>0.0628464686692336</v>
       </c>
       <c r="F8">
-        <v>2.010872462124397</v>
+        <v>1.282907230127421</v>
       </c>
       <c r="G8">
-        <v>0.0007873726957986203</v>
+        <v>0.7972649503652747</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5170579036343952</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.465325913779651</v>
       </c>
       <c r="J8">
-        <v>0.03411207104061731</v>
+        <v>0.02399665763222814</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4169959988458771</v>
       </c>
       <c r="M8">
-        <v>0.8187721658368403</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7297600697601681</v>
+        <v>0.7012657609481892</v>
       </c>
       <c r="O8">
-        <v>1.035732520447795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.742396826916888</v>
+        <v>3.836357639889968</v>
       </c>
       <c r="C9">
-        <v>0.9235718716235226</v>
+        <v>0.6169619697055282</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1380760296460508</v>
+        <v>0.06631912716217592</v>
       </c>
       <c r="F9">
-        <v>2.503776275556206</v>
+        <v>1.529418552823714</v>
       </c>
       <c r="G9">
-        <v>0.000769085162483193</v>
+        <v>0.9819651435644943</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5841208980444748</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5069074429028575</v>
       </c>
       <c r="J9">
-        <v>0.03351192442963935</v>
+        <v>0.02278024491490704</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5335952304374842</v>
       </c>
       <c r="M9">
-        <v>1.102110577886954</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6095528107087453</v>
+        <v>0.6132023285505817</v>
       </c>
       <c r="O9">
-        <v>1.296767555119175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.506306639771026</v>
+        <v>4.575019000982195</v>
       </c>
       <c r="C10">
-        <v>1.112505176811794</v>
+        <v>0.7282289155918704</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1540974908952499</v>
+        <v>0.06912485642623167</v>
       </c>
       <c r="F10">
-        <v>2.895871659499591</v>
+        <v>1.726520709577159</v>
       </c>
       <c r="G10">
-        <v>0.0007561036625570727</v>
+        <v>1.131748443745323</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6409680303081302</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5454011021755321</v>
       </c>
       <c r="J10">
-        <v>0.03384894487397005</v>
+        <v>0.02199259520140195</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6216874221265982</v>
       </c>
       <c r="M10">
-        <v>1.317748454973753</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5308086929074669</v>
+        <v>0.5551224790161662</v>
       </c>
       <c r="O10">
-        <v>1.509544168325732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.86223605216378</v>
+        <v>4.915040800954557</v>
       </c>
       <c r="C11">
-        <v>1.200523155334281</v>
+        <v>0.7794676834551524</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1615283469173754</v>
+        <v>0.07046211579036843</v>
       </c>
       <c r="F11">
-        <v>3.082553514408914</v>
+        <v>1.820386399818503</v>
       </c>
       <c r="G11">
-        <v>0.0007502702121124916</v>
+        <v>1.203665939926282</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6688054296565156</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.5649696775009332</v>
       </c>
       <c r="J11">
-        <v>0.03421294397007202</v>
+        <v>0.02165928118358096</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.662423722870912</v>
       </c>
       <c r="M11">
-        <v>1.418036686728627</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4974152207334548</v>
+        <v>0.5303018052120656</v>
       </c>
       <c r="O11">
-        <v>1.612230904133853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.998449824992235</v>
+        <v>5.044471422676509</v>
       </c>
       <c r="C12">
-        <v>1.234209281817868</v>
+        <v>0.7989792243056968</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1643648866143508</v>
+        <v>0.07097777198726973</v>
       </c>
       <c r="F12">
-        <v>3.154612168295643</v>
+        <v>1.856601679090957</v>
       </c>
       <c r="G12">
-        <v>0.000748069068713957</v>
+        <v>1.231509004406149</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.679661579067897</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5727062168926693</v>
       </c>
       <c r="J12">
-        <v>0.03438514915784552</v>
+        <v>0.02153685496320712</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6779568928895685</v>
       </c>
       <c r="M12">
-        <v>1.456382301382448</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4851531022267146</v>
+        <v>0.5211481807372458</v>
       </c>
       <c r="O12">
-        <v>1.652090810243607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.969046303137247</v>
+        <v>5.016564712193997</v>
       </c>
       <c r="C13">
-        <v>1.226937552245374</v>
+        <v>0.7947719148270096</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1637529439088503</v>
+        <v>0.07086629558758162</v>
       </c>
       <c r="F13">
-        <v>3.139029341349755</v>
+        <v>1.848771140269463</v>
       </c>
       <c r="G13">
-        <v>0.0007485428176120889</v>
+        <v>1.225484280223014</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6773090004466553</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5710249850707072</v>
       </c>
       <c r="J13">
-        <v>0.03434646230556737</v>
+        <v>0.02156304948823085</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.674606577044969</v>
       </c>
       <c r="M13">
-        <v>1.44810657423578</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4877763312570096</v>
+        <v>0.5231084033903315</v>
       </c>
       <c r="O13">
-        <v>1.643460715642121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.873412401764199</v>
+        <v>4.925675088210937</v>
       </c>
       <c r="C14">
-        <v>1.203287047523986</v>
+        <v>0.7810706189012819</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1617612440683054</v>
+        <v>0.0705043503902143</v>
       </c>
       <c r="F14">
-        <v>3.088453389416003</v>
+        <v>1.823352017872509</v>
       </c>
       <c r="G14">
-        <v>0.0007500889805912529</v>
+        <v>1.205943991423652</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6696920795815799</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.565599442270674</v>
       </c>
       <c r="J14">
-        <v>0.03422639729926402</v>
+        <v>0.02164913185428219</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6636994252513091</v>
       </c>
       <c r="M14">
-        <v>1.421183687356077</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4963985161379689</v>
+        <v>0.5295437196339812</v>
       </c>
       <c r="O14">
-        <v>1.615489881717068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.815027239990968</v>
+        <v>4.870093068331016</v>
       </c>
       <c r="C15">
-        <v>1.188848589193526</v>
+        <v>0.7726929097376569</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1605442853818104</v>
+        <v>0.07028387087750332</v>
       </c>
       <c r="F15">
-        <v>3.057657505703105</v>
+        <v>1.807871435151654</v>
       </c>
       <c r="G15">
-        <v>0.0007510369944206819</v>
+        <v>1.194056432030521</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6650684337955681</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5623195924402751</v>
       </c>
       <c r="J15">
-        <v>0.03415745999038577</v>
+        <v>0.02170236008582016</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6570328145494813</v>
       </c>
       <c r="M15">
-        <v>1.404742339633898</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5017308551062882</v>
+        <v>0.5335179766006064</v>
       </c>
       <c r="O15">
-        <v>1.598487922356099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.483233474458928</v>
+        <v>4.552886322345785</v>
       </c>
       <c r="C16">
-        <v>1.106799443467594</v>
+        <v>0.7248944526354535</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1536149134580818</v>
+        <v>0.06903873135486904</v>
       </c>
       <c r="F16">
-        <v>2.883853004582903</v>
+        <v>1.720476448520444</v>
       </c>
       <c r="G16">
-        <v>0.0007564861338935808</v>
+        <v>1.127130027177998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6391911136626618</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5441661952728865</v>
       </c>
       <c r="J16">
-        <v>0.03382973162281644</v>
+        <v>0.02201489730409101</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6190395396801023</v>
       </c>
       <c r="M16">
-        <v>1.311242926093769</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5330427083191118</v>
+        <v>0.5567780470031849</v>
       </c>
       <c r="O16">
-        <v>1.502962450378234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.28199399436653</v>
+        <v>4.359380792374225</v>
       </c>
       <c r="C17">
-        <v>1.057034252150885</v>
+        <v>0.6957440746247698</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.149401938373547</v>
+        <v>0.06829082646191154</v>
       </c>
       <c r="F17">
-        <v>2.779474412306485</v>
+        <v>1.667984065914368</v>
       </c>
       <c r="G17">
-        <v>0.0007598457464909059</v>
+        <v>1.087086039840926</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6238434072525649</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5335774926539898</v>
       </c>
       <c r="J17">
-        <v>0.0336853684224856</v>
+        <v>0.02221316243861793</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5959097885807267</v>
       </c>
       <c r="M17">
-        <v>1.254481762092254</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.552896272755234</v>
+        <v>0.5714676684255338</v>
       </c>
       <c r="O17">
-        <v>1.445955697220356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.167024499927152</v>
+        <v>4.248451839279539</v>
       </c>
       <c r="C18">
-        <v>1.028601714801596</v>
+        <v>0.6790349319000484</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1469920297158538</v>
+        <v>0.06786635249009443</v>
       </c>
       <c r="F18">
-        <v>2.720209976348229</v>
+        <v>1.638183150979771</v>
       </c>
       <c r="G18">
-        <v>0.0007617850394505749</v>
+        <v>1.064405329538829</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6151999506854224</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5276788428961012</v>
       </c>
       <c r="J18">
-        <v>0.03362189129506277</v>
+        <v>0.02232953816451477</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5826677725052463</v>
       </c>
       <c r="M18">
-        <v>1.222037162059763</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5645417324288644</v>
+        <v>0.5800663685727976</v>
       </c>
       <c r="O18">
-        <v>1.413713152925709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.128225192778302</v>
+        <v>4.2109540118052</v>
       </c>
       <c r="C19">
-        <v>1.019006124722239</v>
+        <v>0.6733868122608726</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1461782962752451</v>
+        <v>0.06772359742602063</v>
       </c>
       <c r="F19">
-        <v>2.700271673579721</v>
+        <v>1.628158365465694</v>
       </c>
       <c r="G19">
-        <v>0.0007624429121204331</v>
+        <v>1.056784498461226</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6123041703843484</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5257137012064916</v>
       </c>
       <c r="J19">
-        <v>0.03360364276456806</v>
+        <v>0.02236933708632094</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5781944878910821</v>
       </c>
       <c r="M19">
-        <v>1.211085310540241</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5685225654498787</v>
+        <v>0.5830029924997433</v>
       </c>
       <c r="O19">
-        <v>1.402886579443148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.303334241892685</v>
+        <v>4.3799407912569</v>
       </c>
       <c r="C20">
-        <v>1.062311670453056</v>
+        <v>0.6988411118997249</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1498490273135609</v>
+        <v>0.06836984865597096</v>
       </c>
       <c r="F20">
-        <v>2.790504687782914</v>
+        <v>1.673531010558818</v>
       </c>
       <c r="G20">
-        <v>0.0007594874095494691</v>
+        <v>1.091311950766737</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6254579280589212</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5346846268887759</v>
       </c>
       <c r="J20">
-        <v>0.03369868435261125</v>
+        <v>0.02219181336314691</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5983655311896285</v>
       </c>
       <c r="M20">
-        <v>1.260502718183005</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.550759180733646</v>
+        <v>0.5698883414613292</v>
       </c>
       <c r="O20">
-        <v>1.451966760118097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.901461667195633</v>
+        <v>4.952352528792176</v>
       </c>
       <c r="C21">
-        <v>1.21022362367529</v>
+        <v>0.7850919152214715</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1623456221412454</v>
+        <v>0.07061040675902497</v>
       </c>
       <c r="F21">
-        <v>3.103270228751427</v>
+        <v>1.830799480659365</v>
       </c>
       <c r="G21">
-        <v>0.0007496346430902577</v>
+        <v>1.211666351168191</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.671920555649308</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.5671839420035241</v>
       </c>
       <c r="J21">
-        <v>0.03426069534277332</v>
+        <v>0.02162374271929579</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6669001099907348</v>
       </c>
       <c r="M21">
-        <v>1.429081130528104</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4938552753763652</v>
+        <v>0.5276467215013447</v>
       </c>
       <c r="O21">
-        <v>1.623678046158489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.300836827947705</v>
+        <v>5.330423712993877</v>
       </c>
       <c r="C22">
-        <v>1.308998110781658</v>
+        <v>0.8421046670003705</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1706459696910159</v>
+        <v>0.07212901405869054</v>
       </c>
       <c r="F22">
-        <v>3.31573922012177</v>
+        <v>1.937526057312951</v>
       </c>
       <c r="G22">
-        <v>0.0007432397082676393</v>
+        <v>1.293912555305667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7041373012740451</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.590342539215456</v>
       </c>
       <c r="J22">
-        <v>0.03483063374260098</v>
+        <v>0.02127469562731044</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7123226823860591</v>
       </c>
       <c r="M22">
-        <v>1.541435166659369</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4589184292281949</v>
+        <v>0.5014780372163159</v>
       </c>
       <c r="O22">
-        <v>1.741653792487639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.086828095185979</v>
+        <v>5.128242710320251</v>
       </c>
       <c r="C23">
-        <v>1.256066494318929</v>
+        <v>0.8116102753970438</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1662029736285149</v>
+        <v>0.07131335945290296</v>
       </c>
       <c r="F23">
-        <v>3.201541182589693</v>
+        <v>1.880179931558601</v>
       </c>
       <c r="G23">
-        <v>0.0007466496438590872</v>
+        <v>1.249664512564692</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6867624650282949</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.5777960068683043</v>
       </c>
       <c r="J23">
-        <v>0.03450640824437201</v>
+        <v>0.0214588820493784</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6880178177005263</v>
       </c>
       <c r="M23">
-        <v>1.481251049831144</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.477346235939919</v>
+        <v>0.5153076902940583</v>
       </c>
       <c r="O23">
-        <v>1.678115116020493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.293684071645544</v>
+        <v>4.370644626351009</v>
       </c>
       <c r="C24">
-        <v>1.059925199057346</v>
+        <v>0.6974407876469115</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1496468606021217</v>
+        <v>0.06833410560805575</v>
       </c>
       <c r="F24">
-        <v>2.785515594821703</v>
+        <v>1.671022065491087</v>
       </c>
       <c r="G24">
-        <v>0.000759649389201653</v>
+        <v>1.089400358854135</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6247274443554147</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5341835052750739</v>
       </c>
       <c r="J24">
-        <v>0.03369260372300431</v>
+        <v>0.02220145784905547</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5972551177062826</v>
       </c>
       <c r="M24">
-        <v>1.257780061829919</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5517246418656008</v>
+        <v>0.5706018783897093</v>
       </c>
       <c r="O24">
-        <v>1.449247512800042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.467228610305312</v>
+        <v>3.567291707652203</v>
       </c>
       <c r="C25">
-        <v>0.8554864111354163</v>
+        <v>0.5764230427087966</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1322894341906107</v>
+        <v>0.06533678438501767</v>
       </c>
       <c r="F25">
-        <v>2.365729464506984</v>
+        <v>1.460152447235913</v>
       </c>
       <c r="G25">
-        <v>0.0007739444294032699</v>
+        <v>0.9297523099326668</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5647525803712483</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4943683972554993</v>
       </c>
       <c r="J25">
-        <v>0.0335504419670265</v>
+        <v>0.02309129300930834</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5016681960546094</v>
       </c>
       <c r="M25">
-        <v>1.024323843903375</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6404991837755425</v>
+        <v>0.6359150770264428</v>
       </c>
       <c r="O25">
-        <v>1.22287396797941</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.984404442888263</v>
+        <v>1.489477579669142</v>
       </c>
       <c r="C2">
-        <v>0.4885191501294059</v>
+        <v>0.1874954686519459</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06329873514648732</v>
+        <v>0.1772940359760735</v>
       </c>
       <c r="F2">
-        <v>1.315360459194522</v>
+        <v>2.033009967590601</v>
       </c>
       <c r="G2">
-        <v>0.8213946817867708</v>
+        <v>0.976411116029638</v>
       </c>
       <c r="H2">
-        <v>0.525557674722009</v>
+        <v>0.978897974828385</v>
       </c>
       <c r="I2">
-        <v>0.4702629422351308</v>
+        <v>0.9170943720519134</v>
       </c>
       <c r="J2">
-        <v>0.02381694102303555</v>
+        <v>0.0405182314035617</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4328703920864427</v>
+        <v>0.511870541956128</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6883870624055142</v>
+        <v>1.321400642053796</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.593302322204806</v>
+        <v>1.382237922499371</v>
       </c>
       <c r="C3">
-        <v>0.4294181504459971</v>
+        <v>0.1690178688503465</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06201526946296099</v>
+        <v>0.1776175771092277</v>
       </c>
       <c r="F3">
-        <v>1.222781203097071</v>
+        <v>2.025088319577449</v>
       </c>
       <c r="G3">
-        <v>0.7527255833421691</v>
+        <v>0.9684340870399524</v>
       </c>
       <c r="H3">
-        <v>0.5016466452428148</v>
+        <v>0.9808816365426622</v>
       </c>
       <c r="I3">
-        <v>0.4567292348634169</v>
+        <v>0.9220049875767771</v>
       </c>
       <c r="J3">
-        <v>0.02435025116252554</v>
+        <v>0.04072690103194709</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3870506026064504</v>
+        <v>0.5018974493556527</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7264614827696292</v>
+        <v>1.337022150083595</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.354670966565038</v>
+        <v>1.31685600328683</v>
       </c>
       <c r="C4">
-        <v>0.3932812317971468</v>
+        <v>0.1575937255937845</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06127316802302119</v>
+        <v>0.1778552994635447</v>
       </c>
       <c r="F4">
-        <v>1.168377968801423</v>
+        <v>2.021382673448798</v>
       </c>
       <c r="G4">
-        <v>0.7126235970545594</v>
+        <v>0.9642910828353166</v>
       </c>
       <c r="H4">
-        <v>0.4881398965265333</v>
+        <v>0.9826548267875523</v>
       </c>
       <c r="I4">
-        <v>0.4496675348924981</v>
+        <v>0.9255878345730011</v>
       </c>
       <c r="J4">
-        <v>0.02469751382336938</v>
+        <v>0.04086577053323737</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3592598921338492</v>
+        <v>0.4959734354524272</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7510128508681042</v>
+        <v>1.347155527685434</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.257747903755899</v>
+        <v>1.290329938994091</v>
       </c>
       <c r="C5">
-        <v>0.3785821890270711</v>
+        <v>0.1529184232514069</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06098200566180445</v>
+        <v>0.177962026972196</v>
       </c>
       <c r="F5">
-        <v>1.14678122552202</v>
+        <v>2.020163688026514</v>
       </c>
       <c r="G5">
-        <v>0.6967600485883736</v>
+        <v>0.9627920279541371</v>
       </c>
       <c r="H5">
-        <v>0.4829127918778653</v>
+        <v>0.9835168870206843</v>
       </c>
       <c r="I5">
-        <v>0.4470850347867739</v>
+        <v>0.9271904005520568</v>
       </c>
       <c r="J5">
-        <v>0.02484391667071328</v>
+        <v>0.04092506984614452</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.348013813793699</v>
+        <v>0.4936097077697497</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7613034847916076</v>
+        <v>1.351421148911022</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.241671682980041</v>
+        <v>1.285932438778445</v>
       </c>
       <c r="C6">
-        <v>0.3761427502491586</v>
+        <v>0.1521408912486493</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06093432930336284</v>
+        <v>0.177980345019737</v>
       </c>
       <c r="F6">
-        <v>1.143228565914754</v>
+        <v>2.019978853204648</v>
       </c>
       <c r="G6">
-        <v>0.6941536872066933</v>
+        <v>0.9625545245609572</v>
       </c>
       <c r="H6">
-        <v>0.4820610494117972</v>
+        <v>0.9836684510394917</v>
       </c>
       <c r="I6">
-        <v>0.4466735182843777</v>
+        <v>0.9274651070212698</v>
       </c>
       <c r="J6">
-        <v>0.02486851967094417</v>
+        <v>0.040935080262269</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3461509679784314</v>
+        <v>0.4932202595555566</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.763029233417587</v>
+        <v>1.35213767669579</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.353362601522974</v>
+        <v>1.316497786017123</v>
       </c>
       <c r="C7">
-        <v>0.3930828998605307</v>
+        <v>0.1575307533524892</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0612691961432823</v>
+        <v>0.177856698890329</v>
       </c>
       <c r="F7">
-        <v>1.168084439541531</v>
+        <v>2.02136505537014</v>
       </c>
       <c r="G7">
-        <v>0.7124077699400715</v>
+        <v>0.9642701005477932</v>
       </c>
       <c r="H7">
-        <v>0.4880683038570481</v>
+        <v>0.9826658883140738</v>
       </c>
       <c r="I7">
-        <v>0.4496315349510596</v>
+        <v>0.9256088705590315</v>
       </c>
       <c r="J7">
-        <v>0.02469946857405247</v>
+        <v>0.04086655928807126</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3591079136589457</v>
+        <v>0.495941353251709</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7511504888673919</v>
+        <v>1.347212503967366</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.849203580818141</v>
+        <v>1.452405678572006</v>
       </c>
       <c r="C8">
-        <v>0.4681028312964486</v>
+        <v>0.1811407159188718</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0628464686692336</v>
+        <v>0.177397502521135</v>
       </c>
       <c r="F8">
-        <v>1.282907230127421</v>
+        <v>2.03003807582742</v>
       </c>
       <c r="G8">
-        <v>0.7972649503652747</v>
+        <v>0.9735035977716819</v>
       </c>
       <c r="H8">
-        <v>0.5170579036343952</v>
+        <v>0.9794666185248673</v>
       </c>
       <c r="I8">
-        <v>0.465325913779651</v>
+        <v>0.9186695852987441</v>
       </c>
       <c r="J8">
-        <v>0.02399665763222814</v>
+        <v>0.04058795452127129</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4169959988458771</v>
+        <v>0.5083905212026281</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7012657609481892</v>
+        <v>1.326674488912662</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.836357639889968</v>
+        <v>1.722570100097585</v>
       </c>
       <c r="C9">
-        <v>0.6169619697055282</v>
+        <v>0.2268187768092673</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06631912716217592</v>
+        <v>0.1768057310215383</v>
       </c>
       <c r="F9">
-        <v>1.529418552823714</v>
+        <v>2.05624747587774</v>
       </c>
       <c r="G9">
-        <v>0.9819651435644943</v>
+        <v>0.9976290615348944</v>
       </c>
       <c r="H9">
-        <v>0.5841208980444748</v>
+        <v>0.9776057630002128</v>
       </c>
       <c r="I9">
-        <v>0.5069074429028575</v>
+        <v>0.9095771744597982</v>
       </c>
       <c r="J9">
-        <v>0.02278024491490704</v>
+        <v>0.04012657718739909</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5335952304374842</v>
+        <v>0.5343797243926218</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6132023285505817</v>
+        <v>1.290698710665545</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.575019000982195</v>
+        <v>1.923266803708714</v>
       </c>
       <c r="C10">
-        <v>0.7282289155918704</v>
+        <v>0.2600090460544777</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06912485642623167</v>
+        <v>0.176557532623562</v>
       </c>
       <c r="F10">
-        <v>1.726520709577159</v>
+        <v>2.081134208815769</v>
       </c>
       <c r="G10">
-        <v>1.131748443745323</v>
+        <v>1.01906638807759</v>
       </c>
       <c r="H10">
-        <v>0.6409680303081302</v>
+        <v>0.9789408500029992</v>
       </c>
       <c r="I10">
-        <v>0.5454011021755321</v>
+        <v>0.9056659610250151</v>
       </c>
       <c r="J10">
-        <v>0.02199259520140195</v>
+        <v>0.03983901075053886</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6216874221265982</v>
+        <v>0.5544287654267066</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5551224790161662</v>
+        <v>1.266889112425872</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.915040800954557</v>
+        <v>2.015045827427343</v>
       </c>
       <c r="C11">
-        <v>0.7794676834551524</v>
+        <v>0.2750301118677498</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07046211579036843</v>
+        <v>0.1764847977807449</v>
       </c>
       <c r="F11">
-        <v>1.820386399818503</v>
+        <v>2.093683434325342</v>
       </c>
       <c r="G11">
-        <v>1.203665939926282</v>
+        <v>1.029634449953363</v>
       </c>
       <c r="H11">
-        <v>0.6688054296565156</v>
+        <v>0.9801377190178187</v>
       </c>
       <c r="I11">
-        <v>0.5649696775009332</v>
+        <v>0.9044914938363249</v>
       </c>
       <c r="J11">
-        <v>0.02165928118358096</v>
+        <v>0.03971927194413638</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.662423722870912</v>
+        <v>0.5637557641568947</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5303018052120656</v>
+        <v>1.256627092022406</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.044471422676509</v>
+        <v>2.049868666452767</v>
       </c>
       <c r="C12">
-        <v>0.7989792243056968</v>
+        <v>0.2807071810991033</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07097777198726973</v>
+        <v>0.1764630029410519</v>
       </c>
       <c r="F12">
-        <v>1.856601679090957</v>
+        <v>2.09861240327551</v>
       </c>
       <c r="G12">
-        <v>1.231509004406149</v>
+        <v>1.033754363330985</v>
       </c>
       <c r="H12">
-        <v>0.679661579067897</v>
+        <v>0.9806759155527232</v>
       </c>
       <c r="I12">
-        <v>0.5727062168926693</v>
+        <v>0.9041339989424984</v>
       </c>
       <c r="J12">
-        <v>0.02153685496320712</v>
+        <v>0.039675516532375</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6779568928895685</v>
+        <v>0.567317213837029</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5211481807372458</v>
+        <v>1.252823027644048</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.016564712193997</v>
+        <v>2.042365932453322</v>
       </c>
       <c r="C13">
-        <v>0.7947719148270096</v>
+        <v>0.2794850148929982</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07086629558758162</v>
+        <v>0.176467441644574</v>
       </c>
       <c r="F13">
-        <v>1.848771140269463</v>
+        <v>2.09754299223043</v>
       </c>
       <c r="G13">
-        <v>1.225484280223014</v>
+        <v>1.032861806842277</v>
       </c>
       <c r="H13">
-        <v>0.6773090004466553</v>
+        <v>0.980556223196686</v>
       </c>
       <c r="I13">
-        <v>0.5710249850707072</v>
+        <v>0.9042071068073199</v>
       </c>
       <c r="J13">
-        <v>0.02156304948823085</v>
+        <v>0.03968486954741657</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.674606577044969</v>
+        <v>0.5665488821272362</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5231084033903315</v>
+        <v>1.253638654911221</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.925675088210937</v>
+        <v>2.017909364302398</v>
       </c>
       <c r="C14">
-        <v>0.7810706189012819</v>
+        <v>0.2754973896392414</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0705043503902143</v>
+        <v>0.1764828896644239</v>
       </c>
       <c r="F14">
-        <v>1.823352017872509</v>
+        <v>2.09408539781586</v>
       </c>
       <c r="G14">
-        <v>1.205943991423652</v>
+        <v>1.029971028658707</v>
       </c>
       <c r="H14">
-        <v>0.6696920795815799</v>
+        <v>0.9801802927609629</v>
       </c>
       <c r="I14">
-        <v>0.565599442270674</v>
+        <v>0.9044603322450442</v>
       </c>
       <c r="J14">
-        <v>0.02164913185428219</v>
+        <v>0.03971564038494257</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6636994252513091</v>
+        <v>0.5640481762693099</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5295437196339812</v>
+        <v>1.256312486527484</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.870093068331016</v>
+        <v>2.002937849218142</v>
       </c>
       <c r="C15">
-        <v>0.7726929097376569</v>
+        <v>0.2730534120115635</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07028387087750332</v>
+        <v>0.1764930997767458</v>
       </c>
       <c r="F15">
-        <v>1.807871435151654</v>
+        <v>2.091990559804472</v>
       </c>
       <c r="G15">
-        <v>1.194056432030521</v>
+        <v>1.028215732611642</v>
       </c>
       <c r="H15">
-        <v>0.6650684337955681</v>
+        <v>0.9799610956862068</v>
       </c>
       <c r="I15">
-        <v>0.5623195924402751</v>
+        <v>0.9046268112263718</v>
       </c>
       <c r="J15">
-        <v>0.02170236008582016</v>
+        <v>0.03973469492795445</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6570328145494813</v>
+        <v>0.5625202601896433</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5335179766006064</v>
+        <v>1.257960959860768</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.552886322345785</v>
+        <v>1.917278418106321</v>
       </c>
       <c r="C16">
-        <v>0.7248944526354535</v>
+        <v>0.2590258310000877</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06903873135486904</v>
+        <v>0.1765630919457397</v>
       </c>
       <c r="F16">
-        <v>1.720476448520444</v>
+        <v>2.080338821465489</v>
       </c>
       <c r="G16">
-        <v>1.127130027177998</v>
+        <v>1.018392219177002</v>
       </c>
       <c r="H16">
-        <v>0.6391911136626618</v>
+        <v>0.9788745112390984</v>
       </c>
       <c r="I16">
-        <v>0.5441661952728865</v>
+        <v>0.9057549090221784</v>
       </c>
       <c r="J16">
-        <v>0.02201489730409101</v>
+        <v>0.03984705836021973</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6190395396801023</v>
+        <v>0.5538233649971716</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5567780470031849</v>
+        <v>1.267571219994711</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.359380792374225</v>
+        <v>1.864851588783267</v>
       </c>
       <c r="C17">
-        <v>0.6957440746247698</v>
+        <v>0.25040058103761</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06829082646191154</v>
+        <v>0.1766162985894493</v>
       </c>
       <c r="F17">
-        <v>1.667984065914368</v>
+        <v>2.073505584502712</v>
       </c>
       <c r="G17">
-        <v>1.087086039840926</v>
+        <v>1.012575308251158</v>
       </c>
       <c r="H17">
-        <v>0.6238434072525649</v>
+        <v>0.9783590576017502</v>
       </c>
       <c r="I17">
-        <v>0.5335774926539898</v>
+        <v>0.9066020579460812</v>
       </c>
       <c r="J17">
-        <v>0.02221316243861793</v>
+        <v>0.03991882255561485</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5959097885807267</v>
+        <v>0.5485408787271666</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5714676684255338</v>
+        <v>1.273612633471597</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.248451839279539</v>
+        <v>1.834742408431907</v>
       </c>
       <c r="C18">
-        <v>0.6790349319000484</v>
+        <v>0.2454322819447441</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06786635249009443</v>
+        <v>0.1766506844970532</v>
       </c>
       <c r="F18">
-        <v>1.638183150979771</v>
+        <v>2.06969086942523</v>
       </c>
       <c r="G18">
-        <v>1.064405329538829</v>
+        <v>1.009306351800575</v>
       </c>
       <c r="H18">
-        <v>0.6151999506854224</v>
+        <v>0.9781180600073469</v>
       </c>
       <c r="I18">
-        <v>0.5276788428961012</v>
+        <v>0.9071462215742088</v>
       </c>
       <c r="J18">
-        <v>0.02232953816451477</v>
+        <v>0.03996114233867587</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5826677725052463</v>
+        <v>0.5455219887859499</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5800663685727976</v>
+        <v>1.277141052969995</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.2109540118052</v>
+        <v>1.824555778005163</v>
       </c>
       <c r="C19">
-        <v>0.6733868122608726</v>
+        <v>0.2437488490630813</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06772359742602063</v>
+        <v>0.1766629775508122</v>
       </c>
       <c r="F19">
-        <v>1.628158365465694</v>
+        <v>2.06841911631976</v>
       </c>
       <c r="G19">
-        <v>1.056784498461226</v>
+        <v>1.008212705704523</v>
       </c>
       <c r="H19">
-        <v>0.6123041703843484</v>
+        <v>0.9780459848313114</v>
       </c>
       <c r="I19">
-        <v>0.5257137012064916</v>
+        <v>0.907340231000056</v>
       </c>
       <c r="J19">
-        <v>0.02236933708632094</v>
+        <v>0.03997565038854844</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5781944878910821</v>
+        <v>0.5445031919808798</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5830029924997433</v>
+        <v>1.278344910731814</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.3799407912569</v>
+        <v>1.870427828944173</v>
       </c>
       <c r="C20">
-        <v>0.6988411118997249</v>
+        <v>0.2513195071373673</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06836984865597096</v>
+        <v>0.1766102433469765</v>
       </c>
       <c r="F20">
-        <v>1.673531010558818</v>
+        <v>2.074221030147228</v>
       </c>
       <c r="G20">
-        <v>1.091311950766737</v>
+        <v>1.013186577445552</v>
       </c>
       <c r="H20">
-        <v>0.6254579280589212</v>
+        <v>0.9784081853806015</v>
       </c>
       <c r="I20">
-        <v>0.5346846268887759</v>
+        <v>0.9065059858707158</v>
       </c>
       <c r="J20">
-        <v>0.02219181336314691</v>
+        <v>0.03991107523825121</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5983655311896285</v>
+        <v>0.5491011961178742</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5698883414613292</v>
+        <v>1.272963970857823</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.952352528792176</v>
+        <v>2.025091011036181</v>
       </c>
       <c r="C21">
-        <v>0.7850919152214715</v>
+        <v>0.2766689522791239</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07061040675902497</v>
+        <v>0.1764781964255455</v>
       </c>
       <c r="F21">
-        <v>1.830799480659365</v>
+        <v>2.095096175482155</v>
       </c>
       <c r="G21">
-        <v>1.211666351168191</v>
+        <v>1.030816912034908</v>
       </c>
       <c r="H21">
-        <v>0.671920555649308</v>
+        <v>0.9802884050705813</v>
       </c>
       <c r="I21">
-        <v>0.5671839420035241</v>
+        <v>0.9043835835578662</v>
       </c>
       <c r="J21">
-        <v>0.02162374271929579</v>
+        <v>0.03970655921632549</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6669001099907348</v>
+        <v>0.5647818946019925</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5276467215013447</v>
+        <v>1.255524892662088</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.330423712993877</v>
+        <v>2.126568877562079</v>
       </c>
       <c r="C22">
-        <v>0.8421046670003705</v>
+        <v>0.2931717031657968</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07212901405869054</v>
+        <v>0.1764253883712641</v>
       </c>
       <c r="F22">
-        <v>1.937526057312951</v>
+        <v>2.109770220958566</v>
       </c>
       <c r="G22">
-        <v>1.293912555305667</v>
+        <v>1.043027561034535</v>
       </c>
       <c r="H22">
-        <v>0.7041373012740451</v>
+        <v>0.9820125887829363</v>
       </c>
       <c r="I22">
-        <v>0.590342539215456</v>
+        <v>0.9035051666878502</v>
       </c>
       <c r="J22">
-        <v>0.02127469562731044</v>
+        <v>0.03958214430004858</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7123226823860591</v>
+        <v>0.5752021019608691</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5014780372163159</v>
+        <v>1.244605109583183</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.128242710320251</v>
+        <v>2.07237229684705</v>
       </c>
       <c r="C23">
-        <v>0.8116102753970438</v>
+        <v>0.2843697694052594</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07131335945290296</v>
+        <v>0.1764505178184343</v>
       </c>
       <c r="F23">
-        <v>1.880179931558601</v>
+        <v>2.10184399425448</v>
       </c>
       <c r="G23">
-        <v>1.249664512564692</v>
+        <v>1.036447317780215</v>
       </c>
       <c r="H23">
-        <v>0.6867624650282949</v>
+        <v>0.9810469700500732</v>
       </c>
       <c r="I23">
-        <v>0.5777960068683043</v>
+        <v>0.9039273536490029</v>
       </c>
       <c r="J23">
-        <v>0.0214588820493784</v>
+        <v>0.03964770253670125</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6880178177005263</v>
+        <v>0.569624968795452</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5153076902940583</v>
+        <v>1.250389460554928</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.370644626351009</v>
+        <v>1.867906711935177</v>
       </c>
       <c r="C24">
-        <v>0.6974407876469115</v>
+        <v>0.2509040903348989</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06833410560805575</v>
+        <v>0.1766129690945384</v>
       </c>
       <c r="F24">
-        <v>1.671022065491087</v>
+        <v>2.073897222690945</v>
       </c>
       <c r="G24">
-        <v>1.089400358854135</v>
+        <v>1.01290998824868</v>
       </c>
       <c r="H24">
-        <v>0.6247274443554147</v>
+        <v>0.9783858023253913</v>
       </c>
       <c r="I24">
-        <v>0.5341835052750739</v>
+        <v>0.9065492421251804</v>
       </c>
       <c r="J24">
-        <v>0.02220145784905547</v>
+        <v>0.03991457449257929</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5972551177062826</v>
+        <v>0.5488478202909732</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5706018783897093</v>
+        <v>1.273257059496078</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.567291707652203</v>
+        <v>1.649094651751682</v>
       </c>
       <c r="C25">
-        <v>0.5764230427087966</v>
+        <v>0.2145271886062687</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06533678438501767</v>
+        <v>0.1769329396010733</v>
       </c>
       <c r="F25">
-        <v>1.460152447235913</v>
+        <v>2.048169867678354</v>
       </c>
       <c r="G25">
-        <v>0.9297523099326668</v>
+        <v>0.9904536902758565</v>
       </c>
       <c r="H25">
-        <v>0.5647525803712483</v>
+        <v>0.9776355060797215</v>
       </c>
       <c r="I25">
-        <v>0.4943683972554993</v>
+        <v>0.911551827640821</v>
       </c>
       <c r="J25">
-        <v>0.02309129300930834</v>
+        <v>0.04024233660680387</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5016681960546094</v>
+        <v>0.5271808402993798</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6359150770264428</v>
+        <v>1.299970782457617</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.489477579669142</v>
+        <v>2.984404442888206</v>
       </c>
       <c r="C2">
-        <v>0.1874954686519459</v>
+        <v>0.4885191501291786</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1772940359760735</v>
+        <v>0.06329873514651929</v>
       </c>
       <c r="F2">
-        <v>2.033009967590601</v>
+        <v>1.315360459194551</v>
       </c>
       <c r="G2">
-        <v>0.976411116029638</v>
+        <v>0.8213946817867424</v>
       </c>
       <c r="H2">
-        <v>0.978897974828385</v>
+        <v>0.525557674722009</v>
       </c>
       <c r="I2">
-        <v>0.9170943720519134</v>
+        <v>0.470262942235145</v>
       </c>
       <c r="J2">
-        <v>0.0405182314035617</v>
+        <v>0.02381694102311016</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.511870541956128</v>
+        <v>0.4328703920864143</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.321400642053796</v>
+        <v>0.6883870624055177</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.382237922499371</v>
+        <v>2.59330232220475</v>
       </c>
       <c r="C3">
-        <v>0.1690178688503465</v>
+        <v>0.4294181504459686</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1776175771092277</v>
+        <v>0.06201526946296099</v>
       </c>
       <c r="F3">
-        <v>2.025088319577449</v>
+        <v>1.222781203097085</v>
       </c>
       <c r="G3">
-        <v>0.9684340870399524</v>
+        <v>0.7527255833421549</v>
       </c>
       <c r="H3">
-        <v>0.9808816365426622</v>
+        <v>0.501646645242829</v>
       </c>
       <c r="I3">
-        <v>0.9220049875767771</v>
+        <v>0.4567292348634169</v>
       </c>
       <c r="J3">
-        <v>0.04072690103194709</v>
+        <v>0.02435025116253975</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5018974493556527</v>
+        <v>0.3870506026064646</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.337022150083595</v>
+        <v>0.7264614827695794</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.31685600328683</v>
+        <v>2.354670966565095</v>
       </c>
       <c r="C4">
-        <v>0.1575937255937845</v>
+        <v>0.3932812317969478</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1778552994635447</v>
+        <v>0.06127316802304961</v>
       </c>
       <c r="F4">
-        <v>2.021382673448798</v>
+        <v>1.168377968801437</v>
       </c>
       <c r="G4">
-        <v>0.9642910828353166</v>
+        <v>0.7126235970545878</v>
       </c>
       <c r="H4">
-        <v>0.9826548267875523</v>
+        <v>0.4881398965265333</v>
       </c>
       <c r="I4">
-        <v>0.9255878345730011</v>
+        <v>0.4496675348924768</v>
       </c>
       <c r="J4">
-        <v>0.04086577053323737</v>
+        <v>0.02469751382335872</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4959734354524272</v>
+        <v>0.359259892133764</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.347155527685434</v>
+        <v>0.7510128508681042</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.290329938994091</v>
+        <v>2.257747903755785</v>
       </c>
       <c r="C5">
-        <v>0.1529184232514069</v>
+        <v>0.3785821890269574</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.177962026972196</v>
+        <v>0.06098200566178846</v>
       </c>
       <c r="F5">
-        <v>2.020163688026514</v>
+        <v>1.14678122552202</v>
       </c>
       <c r="G5">
-        <v>0.9627920279541371</v>
+        <v>0.6967600485883452</v>
       </c>
       <c r="H5">
-        <v>0.9835168870206843</v>
+        <v>0.4829127918778795</v>
       </c>
       <c r="I5">
-        <v>0.9271904005520568</v>
+        <v>0.4470850347868023</v>
       </c>
       <c r="J5">
-        <v>0.04092506984614452</v>
+        <v>0.02484391667070796</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4936097077697497</v>
+        <v>0.3480138137936279</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.351421148911022</v>
+        <v>0.7613034847916076</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.285932438778445</v>
+        <v>2.241671682980041</v>
       </c>
       <c r="C6">
-        <v>0.1521408912486493</v>
+        <v>0.3761427502490449</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.177980345019737</v>
+        <v>0.06093432930336462</v>
       </c>
       <c r="F6">
-        <v>2.019978853204648</v>
+        <v>1.14322856591474</v>
       </c>
       <c r="G6">
-        <v>0.9625545245609572</v>
+        <v>0.694153687206807</v>
       </c>
       <c r="H6">
-        <v>0.9836684510394917</v>
+        <v>0.482061049411783</v>
       </c>
       <c r="I6">
-        <v>0.9274651070212698</v>
+        <v>0.4466735182843635</v>
       </c>
       <c r="J6">
-        <v>0.040935080262269</v>
+        <v>0.0248685196709495</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4932202595555566</v>
+        <v>0.3461509679784456</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.35213767669579</v>
+        <v>0.7630292334175124</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.316497786017123</v>
+        <v>2.353362601522917</v>
       </c>
       <c r="C7">
-        <v>0.1575307533524892</v>
+        <v>0.3930828998603602</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.177856698890329</v>
+        <v>0.06126919614328408</v>
       </c>
       <c r="F7">
-        <v>2.02136505537014</v>
+        <v>1.168084439541531</v>
       </c>
       <c r="G7">
-        <v>0.9642701005477932</v>
+        <v>0.7124077699400857</v>
       </c>
       <c r="H7">
-        <v>0.9826658883140738</v>
+        <v>0.4880683038569344</v>
       </c>
       <c r="I7">
-        <v>0.9256088705590315</v>
+        <v>0.4496315349510667</v>
       </c>
       <c r="J7">
-        <v>0.04086655928807126</v>
+        <v>0.02469946857401695</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.495941353251709</v>
+        <v>0.3591079136590167</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.347212503967366</v>
+        <v>0.7511504888673919</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.452405678572006</v>
+        <v>2.849203580818141</v>
       </c>
       <c r="C8">
-        <v>0.1811407159188718</v>
+        <v>0.4681028312965623</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.177397502521135</v>
+        <v>0.06284646866923893</v>
       </c>
       <c r="F8">
-        <v>2.03003807582742</v>
+        <v>1.282907230127435</v>
       </c>
       <c r="G8">
-        <v>0.9735035977716819</v>
+        <v>0.7972649503652747</v>
       </c>
       <c r="H8">
-        <v>0.9794666185248673</v>
+        <v>0.5170579036344094</v>
       </c>
       <c r="I8">
-        <v>0.9186695852987441</v>
+        <v>0.4653259137796368</v>
       </c>
       <c r="J8">
-        <v>0.04058795452127129</v>
+        <v>0.02399665763236669</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5083905212026281</v>
+        <v>0.4169959988458203</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.326674488912662</v>
+        <v>0.7012657609482389</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.722570100097585</v>
+        <v>3.836357639889911</v>
       </c>
       <c r="C9">
-        <v>0.2268187768092673</v>
+        <v>0.6169619697056419</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1768057310215383</v>
+        <v>0.06631912716218835</v>
       </c>
       <c r="F9">
-        <v>2.05624747587774</v>
+        <v>1.529418552823728</v>
       </c>
       <c r="G9">
-        <v>0.9976290615348944</v>
+        <v>0.9819651435645227</v>
       </c>
       <c r="H9">
-        <v>0.9776057630002128</v>
+        <v>0.5841208980444748</v>
       </c>
       <c r="I9">
-        <v>0.9095771744597982</v>
+        <v>0.5069074429028788</v>
       </c>
       <c r="J9">
-        <v>0.04012657718739909</v>
+        <v>0.02278024491485375</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5343797243926218</v>
+        <v>0.5335952304374274</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.290698710665545</v>
+        <v>0.6132023285506421</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.923266803708714</v>
+        <v>4.575019000982422</v>
       </c>
       <c r="C10">
-        <v>0.2600090460544777</v>
+        <v>0.7282289155919841</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.176557532623562</v>
+        <v>0.0691248564262299</v>
       </c>
       <c r="F10">
-        <v>2.081134208815769</v>
+        <v>1.726520709577159</v>
       </c>
       <c r="G10">
-        <v>1.01906638807759</v>
+        <v>1.131748443745295</v>
       </c>
       <c r="H10">
-        <v>0.9789408500029992</v>
+        <v>0.6409680303081302</v>
       </c>
       <c r="I10">
-        <v>0.9056659610250151</v>
+        <v>0.5454011021755392</v>
       </c>
       <c r="J10">
-        <v>0.03983901075053886</v>
+        <v>0.02199259520135044</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5544287654267066</v>
+        <v>0.6216874221266124</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.266889112425872</v>
+        <v>0.5551224790161733</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.015045827427343</v>
+        <v>4.915040800954557</v>
       </c>
       <c r="C11">
-        <v>0.2750301118677498</v>
+        <v>0.7794676834550103</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1764847977807449</v>
+        <v>0.07046211579034178</v>
       </c>
       <c r="F11">
-        <v>2.093683434325342</v>
+        <v>1.820386399818503</v>
       </c>
       <c r="G11">
-        <v>1.029634449953363</v>
+        <v>1.20366593992631</v>
       </c>
       <c r="H11">
-        <v>0.9801377190178187</v>
+        <v>0.6688054296565156</v>
       </c>
       <c r="I11">
-        <v>0.9044914938363249</v>
+        <v>0.5649696775009332</v>
       </c>
       <c r="J11">
-        <v>0.03971927194413638</v>
+        <v>0.02165928118362714</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5637557641568947</v>
+        <v>0.6624237228709546</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.256627092022406</v>
+        <v>0.5303018052120727</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.049868666452767</v>
+        <v>5.044471422676622</v>
       </c>
       <c r="C12">
-        <v>0.2807071810991033</v>
+        <v>0.7989792243055263</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1764630029410519</v>
+        <v>0.07097777198722532</v>
       </c>
       <c r="F12">
-        <v>2.09861240327551</v>
+        <v>1.856601679090957</v>
       </c>
       <c r="G12">
-        <v>1.033754363330985</v>
+        <v>1.231509004406178</v>
       </c>
       <c r="H12">
-        <v>0.9806759155527232</v>
+        <v>0.6796615790679255</v>
       </c>
       <c r="I12">
-        <v>0.9041339989424984</v>
+        <v>0.5727062168926693</v>
       </c>
       <c r="J12">
-        <v>0.039675516532375</v>
+        <v>0.02153685496323732</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.567317213837029</v>
+        <v>0.6779568928895685</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.252823027644048</v>
+        <v>0.521148180737228</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.042365932453322</v>
+        <v>5.01656471219377</v>
       </c>
       <c r="C13">
-        <v>0.2794850148929982</v>
+        <v>0.7947719148270949</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.176467441644574</v>
+        <v>0.07086629558757807</v>
       </c>
       <c r="F13">
-        <v>2.09754299223043</v>
+        <v>1.848771140269463</v>
       </c>
       <c r="G13">
-        <v>1.032861806842277</v>
+        <v>1.225484280222986</v>
       </c>
       <c r="H13">
-        <v>0.980556223196686</v>
+        <v>0.6773090004466553</v>
       </c>
       <c r="I13">
-        <v>0.9042071068073199</v>
+        <v>0.5710249850707143</v>
       </c>
       <c r="J13">
-        <v>0.03968486954741657</v>
+        <v>0.02156304948823085</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5665488821272362</v>
+        <v>0.674606577044969</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.253638654911221</v>
+        <v>0.5231084033903315</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.017909364302398</v>
+        <v>4.925675088211051</v>
       </c>
       <c r="C14">
-        <v>0.2754973896392414</v>
+        <v>0.7810706189011682</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1764828896644239</v>
+        <v>0.07050435039021075</v>
       </c>
       <c r="F14">
-        <v>2.09408539781586</v>
+        <v>1.823352017872537</v>
       </c>
       <c r="G14">
-        <v>1.029971028658707</v>
+        <v>1.205943991423652</v>
       </c>
       <c r="H14">
-        <v>0.9801802927609629</v>
+        <v>0.6696920795814663</v>
       </c>
       <c r="I14">
-        <v>0.9044603322450442</v>
+        <v>0.5655994422706598</v>
       </c>
       <c r="J14">
-        <v>0.03971564038494257</v>
+        <v>0.02164913185422002</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5640481762693099</v>
+        <v>0.663699425251238</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.256312486527484</v>
+        <v>0.529543719634038</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.002937849218142</v>
+        <v>4.870093068330789</v>
       </c>
       <c r="C15">
-        <v>0.2730534120115635</v>
+        <v>0.7726929097376569</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1764930997767458</v>
+        <v>0.07028387087746957</v>
       </c>
       <c r="F15">
-        <v>2.091990559804472</v>
+        <v>1.807871435151654</v>
       </c>
       <c r="G15">
-        <v>1.028215732611642</v>
+        <v>1.19405643203055</v>
       </c>
       <c r="H15">
-        <v>0.9799610956862068</v>
+        <v>0.6650684337955681</v>
       </c>
       <c r="I15">
-        <v>0.9046268112263718</v>
+        <v>0.562319592440268</v>
       </c>
       <c r="J15">
-        <v>0.03973469492795445</v>
+        <v>0.02170236008575976</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5625202601896433</v>
+        <v>0.6570328145493818</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.257960959860768</v>
+        <v>0.5335179766006739</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.917278418106321</v>
+        <v>4.552886322345842</v>
       </c>
       <c r="C16">
-        <v>0.2590258310000877</v>
+        <v>0.7248944526354535</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1765630919457397</v>
+        <v>0.0690387313548797</v>
       </c>
       <c r="F16">
-        <v>2.080338821465489</v>
+        <v>1.720476448520444</v>
       </c>
       <c r="G16">
-        <v>1.018392219177002</v>
+        <v>1.127130027177941</v>
       </c>
       <c r="H16">
-        <v>0.9788745112390984</v>
+        <v>0.6391911136626618</v>
       </c>
       <c r="I16">
-        <v>0.9057549090221784</v>
+        <v>0.5441661952729149</v>
       </c>
       <c r="J16">
-        <v>0.03984705836021973</v>
+        <v>0.02201489730423312</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5538233649971716</v>
+        <v>0.6190395396800881</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.267571219994711</v>
+        <v>0.5567780470031813</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.864851588783267</v>
+        <v>4.359380792374111</v>
       </c>
       <c r="C17">
-        <v>0.25040058103761</v>
+        <v>0.6957440746246562</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1766162985894493</v>
+        <v>0.06829082646192219</v>
       </c>
       <c r="F17">
-        <v>2.073505584502712</v>
+        <v>1.667984065914382</v>
       </c>
       <c r="G17">
-        <v>1.012575308251158</v>
+        <v>1.087086039840926</v>
       </c>
       <c r="H17">
-        <v>0.9783590576017502</v>
+        <v>0.6238434072525649</v>
       </c>
       <c r="I17">
-        <v>0.9066020579460812</v>
+        <v>0.5335774926539827</v>
       </c>
       <c r="J17">
-        <v>0.03991882255561485</v>
+        <v>0.02221316243854332</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5485408787271666</v>
+        <v>0.5959097885806699</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.273612633471597</v>
+        <v>0.5714676684255267</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.834742408431907</v>
+        <v>4.248451839279539</v>
       </c>
       <c r="C18">
-        <v>0.2454322819447441</v>
+        <v>0.67903493190002</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1766506844970532</v>
+        <v>0.06786635249013351</v>
       </c>
       <c r="F18">
-        <v>2.06969086942523</v>
+        <v>1.638183150979785</v>
       </c>
       <c r="G18">
-        <v>1.009306351800575</v>
+        <v>1.064405329538872</v>
       </c>
       <c r="H18">
-        <v>0.9781180600073469</v>
+        <v>0.6151999506852945</v>
       </c>
       <c r="I18">
-        <v>0.9071462215742088</v>
+        <v>0.5276788428960941</v>
       </c>
       <c r="J18">
-        <v>0.03996114233867587</v>
+        <v>0.02232953816445971</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5455219887859499</v>
+        <v>0.5826677725052747</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.277141052969995</v>
+        <v>0.5800663685727905</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.824555778005163</v>
+        <v>4.2109540118052</v>
       </c>
       <c r="C19">
-        <v>0.2437488490630813</v>
+        <v>0.6733868122608442</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1766629775508122</v>
+        <v>0.06772359742600464</v>
       </c>
       <c r="F19">
-        <v>2.06841911631976</v>
+        <v>1.628158365465666</v>
       </c>
       <c r="G19">
-        <v>1.008212705704523</v>
+        <v>1.056784498461212</v>
       </c>
       <c r="H19">
-        <v>0.9780459848313114</v>
+        <v>0.6123041703843342</v>
       </c>
       <c r="I19">
-        <v>0.907340231000056</v>
+        <v>0.5257137012064916</v>
       </c>
       <c r="J19">
-        <v>0.03997565038854844</v>
+        <v>0.0223693370863316</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5445031919808798</v>
+        <v>0.5781944878910537</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.278344910731814</v>
+        <v>0.5830029924997433</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.870427828944173</v>
+        <v>4.379940791256956</v>
       </c>
       <c r="C20">
-        <v>0.2513195071373673</v>
+        <v>0.6988411118997817</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1766102433469765</v>
+        <v>0.06836984865596918</v>
       </c>
       <c r="F20">
-        <v>2.074221030147228</v>
+        <v>1.673531010558818</v>
       </c>
       <c r="G20">
-        <v>1.013186577445552</v>
+        <v>1.091311950766737</v>
       </c>
       <c r="H20">
-        <v>0.9784081853806015</v>
+        <v>0.6254579280588928</v>
       </c>
       <c r="I20">
-        <v>0.9065059858707158</v>
+        <v>0.5346846268887688</v>
       </c>
       <c r="J20">
-        <v>0.03991107523825121</v>
+        <v>0.02219181336312737</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5491011961178742</v>
+        <v>0.5983655311895149</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.272963970857823</v>
+        <v>0.5698883414613007</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.025091011036181</v>
+        <v>4.952352528792233</v>
       </c>
       <c r="C21">
-        <v>0.2766689522791239</v>
+        <v>0.7850919152215283</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1764781964255455</v>
+        <v>0.07061040675902142</v>
       </c>
       <c r="F21">
-        <v>2.095096175482155</v>
+        <v>1.830799480659365</v>
       </c>
       <c r="G21">
-        <v>1.030816912034908</v>
+        <v>1.211666351168134</v>
       </c>
       <c r="H21">
-        <v>0.9802884050705813</v>
+        <v>0.671920555649308</v>
       </c>
       <c r="I21">
-        <v>0.9043835835578662</v>
+        <v>0.5671839420035028</v>
       </c>
       <c r="J21">
-        <v>0.03970655921632549</v>
+        <v>0.02162374271929579</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5647818946019925</v>
+        <v>0.666900109990749</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.255524892662088</v>
+        <v>0.5276467215014016</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.126568877562079</v>
+        <v>5.330423712993877</v>
       </c>
       <c r="C22">
-        <v>0.2931717031657968</v>
+        <v>0.8421046670003705</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1764253883712641</v>
+        <v>0.07212901405869054</v>
       </c>
       <c r="F22">
-        <v>2.109770220958566</v>
+        <v>1.937526057312965</v>
       </c>
       <c r="G22">
-        <v>1.043027561034535</v>
+        <v>1.293912555305639</v>
       </c>
       <c r="H22">
-        <v>0.9820125887829363</v>
+        <v>0.7041373012740451</v>
       </c>
       <c r="I22">
-        <v>0.9035051666878502</v>
+        <v>0.5903425392154347</v>
       </c>
       <c r="J22">
-        <v>0.03958214430004858</v>
+        <v>0.02127469562730511</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5752021019608691</v>
+        <v>0.7123226823861017</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.244605109583183</v>
+        <v>0.5014780372162484</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.07237229684705</v>
+        <v>5.128242710320194</v>
       </c>
       <c r="C23">
-        <v>0.2843697694052594</v>
+        <v>0.8116102753968164</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1764505178184343</v>
+        <v>0.07131335945289585</v>
       </c>
       <c r="F23">
-        <v>2.10184399425448</v>
+        <v>1.880179931558615</v>
       </c>
       <c r="G23">
-        <v>1.036447317780215</v>
+        <v>1.249664512564749</v>
       </c>
       <c r="H23">
-        <v>0.9810469700500732</v>
+        <v>0.6867624650282949</v>
       </c>
       <c r="I23">
-        <v>0.9039273536490029</v>
+        <v>0.5777960068683115</v>
       </c>
       <c r="J23">
-        <v>0.03964770253670125</v>
+        <v>0.02145888204931445</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.569624968795452</v>
+        <v>0.6880178177004552</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.250389460554928</v>
+        <v>0.5153076902939979</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.867906711935177</v>
+        <v>4.370644626351009</v>
       </c>
       <c r="C24">
-        <v>0.2509040903348989</v>
+        <v>0.6974407876471389</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1766129690945384</v>
+        <v>0.06833410560805397</v>
       </c>
       <c r="F24">
-        <v>2.073897222690945</v>
+        <v>1.671022065491059</v>
       </c>
       <c r="G24">
-        <v>1.01290998824868</v>
+        <v>1.089400358854306</v>
       </c>
       <c r="H24">
-        <v>0.9783858023253913</v>
+        <v>0.6247274443554147</v>
       </c>
       <c r="I24">
-        <v>0.9065492421251804</v>
+        <v>0.5341835052750454</v>
       </c>
       <c r="J24">
-        <v>0.03991457449257929</v>
+        <v>0.02220145784898797</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5488478202909732</v>
+        <v>0.5972551177061689</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.273257059496078</v>
+        <v>0.5706018783896383</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.649094651751682</v>
+        <v>3.567291707652373</v>
       </c>
       <c r="C25">
-        <v>0.2145271886062687</v>
+        <v>0.5764230427091377</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1769329396010733</v>
+        <v>0.06533678438502122</v>
       </c>
       <c r="F25">
-        <v>2.048169867678354</v>
+        <v>1.460152447235913</v>
       </c>
       <c r="G25">
-        <v>0.9904536902758565</v>
+        <v>0.9297523099326952</v>
       </c>
       <c r="H25">
-        <v>0.9776355060797215</v>
+        <v>0.5647525803712199</v>
       </c>
       <c r="I25">
-        <v>0.911551827640821</v>
+        <v>0.4943683972554993</v>
       </c>
       <c r="J25">
-        <v>0.04024233660680387</v>
+        <v>0.02309129300937052</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5271808402993798</v>
+        <v>0.5016681960545384</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.299970782457617</v>
+        <v>0.6359150770263895</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.984404442888206</v>
+        <v>1.547532835546491</v>
       </c>
       <c r="C2">
-        <v>0.4885191501291786</v>
+        <v>0.4364626075749527</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06329873514651929</v>
+        <v>0.47217082365907</v>
       </c>
       <c r="F2">
-        <v>1.315360459194551</v>
+        <v>1.386460694082288</v>
       </c>
       <c r="G2">
-        <v>0.8213946817867424</v>
+        <v>0.224408419348066</v>
       </c>
       <c r="H2">
-        <v>0.525557674722009</v>
+        <v>2.702967649481636E-06</v>
       </c>
       <c r="I2">
-        <v>0.470262942235145</v>
+        <v>0.005051265913137648</v>
       </c>
       <c r="J2">
-        <v>0.02381694102311016</v>
+        <v>0.2027724438571852</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1596763820230525</v>
       </c>
       <c r="L2">
-        <v>0.4328703920864143</v>
+        <v>0.03201999158746283</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6883870624055177</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.889872718555992</v>
+      </c>
+      <c r="P2">
+        <v>0.8184587902438025</v>
+      </c>
+      <c r="Q2">
+        <v>0.8504016837564308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.59330232220475</v>
+        <v>1.351419764470506</v>
       </c>
       <c r="C3">
-        <v>0.4294181504459686</v>
+        <v>0.3918963162670366</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06201526946296099</v>
+        <v>0.4303105519214085</v>
       </c>
       <c r="F3">
-        <v>1.222781203097085</v>
+        <v>1.275279173073883</v>
       </c>
       <c r="G3">
-        <v>0.7527255833421549</v>
+        <v>0.2088281904629596</v>
       </c>
       <c r="H3">
-        <v>0.501646645242829</v>
+        <v>0.00016530932164871</v>
       </c>
       <c r="I3">
-        <v>0.4567292348634169</v>
+        <v>0.003767778211928974</v>
       </c>
       <c r="J3">
-        <v>0.02435025116253975</v>
+        <v>0.1992347674975079</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1627266988653595</v>
       </c>
       <c r="L3">
-        <v>0.3870506026064646</v>
+        <v>0.02960658613891987</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7264614827695794</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7782865961902132</v>
+      </c>
+      <c r="P3">
+        <v>0.8134613994041473</v>
+      </c>
+      <c r="Q3">
+        <v>0.8097110283584072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.354670966565095</v>
+        <v>1.230312582366423</v>
       </c>
       <c r="C4">
-        <v>0.3932812317969478</v>
+        <v>0.3646628512074699</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06127316802304961</v>
+        <v>0.4046570461079355</v>
       </c>
       <c r="F4">
-        <v>1.168377968801437</v>
+        <v>1.207673124918628</v>
       </c>
       <c r="G4">
-        <v>0.7126235970545878</v>
+        <v>0.1995133103444786</v>
       </c>
       <c r="H4">
-        <v>0.4881398965265333</v>
+        <v>0.0004881393367819342</v>
       </c>
       <c r="I4">
-        <v>0.4496675348924768</v>
+        <v>0.00308007450407688</v>
       </c>
       <c r="J4">
-        <v>0.02469751382335872</v>
+        <v>0.1972551550142683</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1647950052785863</v>
       </c>
       <c r="L4">
-        <v>0.359259892133764</v>
+        <v>0.02811044006072905</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7510128508681042</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7097883030631067</v>
+      </c>
+      <c r="P4">
+        <v>0.8110437226310907</v>
+      </c>
+      <c r="Q4">
+        <v>0.7856560765883245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.257747903755785</v>
+        <v>1.179925472843848</v>
       </c>
       <c r="C5">
-        <v>0.3785821890269574</v>
+        <v>0.3541393104419939</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06098200566178846</v>
+        <v>0.3943291629576606</v>
       </c>
       <c r="F5">
-        <v>1.14678122552202</v>
+        <v>1.179924051392263</v>
       </c>
       <c r="G5">
-        <v>0.6967600485883452</v>
+        <v>0.1955007600593106</v>
       </c>
       <c r="H5">
-        <v>0.4829127918778795</v>
+        <v>0.0006733707362898134</v>
       </c>
       <c r="I5">
-        <v>0.4470850347868023</v>
+        <v>0.002878637114640092</v>
       </c>
       <c r="J5">
-        <v>0.02484391667070796</v>
+        <v>0.1963518937815962</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1655034167704414</v>
       </c>
       <c r="L5">
-        <v>0.3480138137936279</v>
+        <v>0.02750361970672266</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7613034847916076</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6820189470042166</v>
+      </c>
+      <c r="P5">
+        <v>0.810578414498714</v>
+      </c>
+      <c r="Q5">
+        <v>0.7751900061200558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.241671682980041</v>
+        <v>1.170494581200359</v>
       </c>
       <c r="C6">
-        <v>0.3761427502490449</v>
+        <v>0.3530623147943572</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06093432930336462</v>
+        <v>0.3927581529489146</v>
       </c>
       <c r="F6">
-        <v>1.14322856591474</v>
+        <v>1.174894341231791</v>
       </c>
       <c r="G6">
-        <v>0.694153687206807</v>
+        <v>0.1945010533086418</v>
       </c>
       <c r="H6">
-        <v>0.482061049411783</v>
+        <v>0.0007077207677415043</v>
       </c>
       <c r="I6">
-        <v>0.4466735182843635</v>
+        <v>0.002921545819300597</v>
       </c>
       <c r="J6">
-        <v>0.0248685196709495</v>
+        <v>0.1960296960669297</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1654020426293137</v>
       </c>
       <c r="L6">
-        <v>0.3461509679784456</v>
+        <v>0.02741113203410706</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7630292334175124</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6775852311767565</v>
+      </c>
+      <c r="P6">
+        <v>0.8109542694083487</v>
+      </c>
+      <c r="Q6">
+        <v>0.7723842756993804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.353362601522917</v>
+        <v>1.226746297156126</v>
       </c>
       <c r="C7">
-        <v>0.3930828998603602</v>
+        <v>0.3663524508810099</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06126919614328408</v>
+        <v>0.4049103976246542</v>
       </c>
       <c r="F7">
-        <v>1.168084439541531</v>
+        <v>1.206121331860928</v>
       </c>
       <c r="G7">
-        <v>0.7124077699400857</v>
+        <v>0.1985379799964235</v>
       </c>
       <c r="H7">
-        <v>0.4880683038569344</v>
+        <v>0.000491406733845956</v>
       </c>
       <c r="I7">
-        <v>0.4496315349510667</v>
+        <v>0.00326800026194185</v>
       </c>
       <c r="J7">
-        <v>0.02469946857401695</v>
+        <v>0.1967651166953175</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1641991238652185</v>
       </c>
       <c r="L7">
-        <v>0.3591079136590167</v>
+        <v>0.02812567595544557</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7511504888673919</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7098993617297609</v>
+      </c>
+      <c r="P7">
+        <v>0.8122612859946656</v>
+      </c>
+      <c r="Q7">
+        <v>0.7825606494460828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.849203580818141</v>
+        <v>1.476197954584421</v>
       </c>
       <c r="C8">
-        <v>0.4681028312965623</v>
+        <v>0.423516505094625</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06284646866923893</v>
+        <v>0.4582487223853491</v>
       </c>
       <c r="F8">
-        <v>1.282907230127435</v>
+        <v>1.346422296178716</v>
       </c>
       <c r="G8">
-        <v>0.7972649503652747</v>
+        <v>0.217760322070383</v>
       </c>
       <c r="H8">
-        <v>0.5170579036344094</v>
+        <v>1.09890351041031E-05</v>
       </c>
       <c r="I8">
-        <v>0.4653259137796368</v>
+        <v>0.004815574814893253</v>
       </c>
       <c r="J8">
-        <v>0.02399665763236669</v>
+        <v>0.2008809383281331</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1598905649153721</v>
       </c>
       <c r="L8">
-        <v>0.4169959988458203</v>
+        <v>0.03122196399097632</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7012657609482389</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8520367996048321</v>
+      </c>
+      <c r="P8">
+        <v>0.8182745302053931</v>
+      </c>
+      <c r="Q8">
+        <v>0.832260538743256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.836357639889911</v>
+        <v>1.965132595524608</v>
       </c>
       <c r="C9">
-        <v>0.6169619697056419</v>
+        <v>0.5335097075883937</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06631912716218835</v>
+        <v>0.5626807635998148</v>
       </c>
       <c r="F9">
-        <v>1.529418552823728</v>
+        <v>1.629515733797589</v>
       </c>
       <c r="G9">
-        <v>0.9819651435645227</v>
+        <v>0.2593117060734187</v>
       </c>
       <c r="H9">
-        <v>0.5841208980444748</v>
+        <v>0.0009672574625188002</v>
       </c>
       <c r="I9">
-        <v>0.5069074429028788</v>
+        <v>0.008440014717381317</v>
       </c>
       <c r="J9">
-        <v>0.02278024491485375</v>
+        <v>0.2114210927083704</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1541516460792867</v>
       </c>
       <c r="L9">
-        <v>0.5335952304374274</v>
+        <v>0.03715954138274569</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6132023285506421</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.130260711482748</v>
+      </c>
+      <c r="P9">
+        <v>0.8331770844166329</v>
+      </c>
+      <c r="Q9">
+        <v>0.9430138263775518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.575019000982422</v>
+        <v>2.32054251186878</v>
       </c>
       <c r="C10">
-        <v>0.7282289155919841</v>
+        <v>0.6154787635201728</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0691248564262299</v>
+        <v>0.6190783968215143</v>
       </c>
       <c r="F10">
-        <v>1.726520709577159</v>
+        <v>1.807442240005116</v>
       </c>
       <c r="G10">
-        <v>1.131748443745295</v>
+        <v>0.2878882271796925</v>
       </c>
       <c r="H10">
-        <v>0.6409680303081302</v>
+        <v>0.003017588502277402</v>
       </c>
       <c r="I10">
-        <v>0.5454011021755392</v>
+        <v>0.01180316382160207</v>
       </c>
       <c r="J10">
-        <v>0.02199259520135044</v>
+        <v>0.2184956434911101</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1495408226161743</v>
       </c>
       <c r="L10">
-        <v>0.6216874221266124</v>
+        <v>0.04248013826459918</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5551224790161733</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.311235537330234</v>
+      </c>
+      <c r="P10">
+        <v>0.8534926129750602</v>
+      </c>
+      <c r="Q10">
+        <v>1.018809896759478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.915040800954557</v>
+        <v>2.484859623295961</v>
       </c>
       <c r="C11">
-        <v>0.7794676834550103</v>
+        <v>0.649196707077266</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07046211579034178</v>
+        <v>0.4770384408292188</v>
       </c>
       <c r="F11">
-        <v>1.820386399818503</v>
+        <v>1.601532019543811</v>
       </c>
       <c r="G11">
-        <v>1.20366593992631</v>
+        <v>0.2727709984138542</v>
       </c>
       <c r="H11">
-        <v>0.6688054296565156</v>
+        <v>0.02129651796251153</v>
       </c>
       <c r="I11">
-        <v>0.5649696775009332</v>
+        <v>0.01338466735558885</v>
       </c>
       <c r="J11">
-        <v>0.02165928118362714</v>
+        <v>0.20781214163285</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1364815204836844</v>
       </c>
       <c r="L11">
-        <v>0.6624237228709546</v>
+        <v>0.0586947340473607</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5303018052120727</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.188677289751823</v>
+      </c>
+      <c r="P11">
+        <v>0.9127596441429517</v>
+      </c>
+      <c r="Q11">
+        <v>0.9645384930798002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.044471422676622</v>
+        <v>2.553840954002851</v>
       </c>
       <c r="C12">
-        <v>0.7989792243055263</v>
+        <v>0.6571561521159879</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07097777198722532</v>
+        <v>0.3643359544681957</v>
       </c>
       <c r="F12">
-        <v>1.856601679090957</v>
+        <v>1.402904464094632</v>
       </c>
       <c r="G12">
-        <v>1.231509004406178</v>
+        <v>0.2554746973326729</v>
       </c>
       <c r="H12">
-        <v>0.6796615790679255</v>
+        <v>0.05953790181506946</v>
       </c>
       <c r="I12">
-        <v>0.5727062168926693</v>
+        <v>0.01366327573556703</v>
       </c>
       <c r="J12">
-        <v>0.02153685496323732</v>
+        <v>0.1979500998810479</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1275428502546188</v>
       </c>
       <c r="L12">
-        <v>0.6779568928895685</v>
+        <v>0.07837347868302658</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.521148180737228</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.052653866393804</v>
+      </c>
+      <c r="P12">
+        <v>0.9595824610190249</v>
+      </c>
+      <c r="Q12">
+        <v>0.9072662122377437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.01656471219377</v>
+        <v>2.548275819606829</v>
       </c>
       <c r="C13">
-        <v>0.7947719148270949</v>
+        <v>0.6486162730505214</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07086629558757807</v>
+        <v>0.2685571900484156</v>
       </c>
       <c r="F13">
-        <v>1.848771140269463</v>
+        <v>1.197354313008802</v>
       </c>
       <c r="G13">
-        <v>1.225484280222986</v>
+        <v>0.2340095571780267</v>
       </c>
       <c r="H13">
-        <v>0.6773090004466553</v>
+        <v>0.1147242170701048</v>
       </c>
       <c r="I13">
-        <v>0.5710249850707143</v>
+        <v>0.01322444465121286</v>
       </c>
       <c r="J13">
-        <v>0.02156304948823085</v>
+        <v>0.1873580525709997</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1202481231900059</v>
       </c>
       <c r="L13">
-        <v>0.674606577044969</v>
+        <v>0.1015813792419351</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5231084033903315</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9001191652717466</v>
+      </c>
+      <c r="P13">
+        <v>1.000644025593843</v>
+      </c>
+      <c r="Q13">
+        <v>0.8395517562023826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.925675088211051</v>
+        <v>2.509661563533768</v>
       </c>
       <c r="C14">
-        <v>0.7810706189011682</v>
+        <v>0.6357759079314178</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07050435039021075</v>
+        <v>0.212294147724915</v>
       </c>
       <c r="F14">
-        <v>1.823352017872537</v>
+        <v>1.05285737786005</v>
       </c>
       <c r="G14">
-        <v>1.205943991423652</v>
+        <v>0.2170212078822971</v>
       </c>
       <c r="H14">
-        <v>0.6696920795814663</v>
+        <v>0.1636609381829572</v>
       </c>
       <c r="I14">
-        <v>0.5655994422706598</v>
+        <v>0.01267089382444198</v>
       </c>
       <c r="J14">
-        <v>0.02164913185422002</v>
+        <v>0.179550391679733</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1158148909226693</v>
       </c>
       <c r="L14">
-        <v>0.663699425251238</v>
+        <v>0.1201786124125448</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.529543719634038</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.78790899670323</v>
+      </c>
+      <c r="P14">
+        <v>1.027272476219551</v>
+      </c>
+      <c r="Q14">
+        <v>0.7871326369289449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.870093068330789</v>
+        <v>2.483020727945643</v>
       </c>
       <c r="C15">
-        <v>0.7726929097376569</v>
+        <v>0.6299289193513289</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07028387087746957</v>
+        <v>0.1998163758685507</v>
       </c>
       <c r="F15">
-        <v>1.807871435151654</v>
+        <v>1.014761793061652</v>
       </c>
       <c r="G15">
-        <v>1.19405643203055</v>
+        <v>0.2117039573159261</v>
       </c>
       <c r="H15">
-        <v>0.6650684337955681</v>
+        <v>0.1760165526429347</v>
       </c>
       <c r="I15">
-        <v>0.562319592440268</v>
+        <v>0.01247887703591832</v>
       </c>
       <c r="J15">
-        <v>0.02170236008575976</v>
+        <v>0.1773542230787726</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1148895568944059</v>
       </c>
       <c r="L15">
-        <v>0.6570328145493818</v>
+        <v>0.124516740052151</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5335179766006739</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7566611537465633</v>
+      </c>
+      <c r="P15">
+        <v>1.032663255210039</v>
+      </c>
+      <c r="Q15">
+        <v>0.7712308983824698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.552886322345842</v>
+        <v>2.32898110892819</v>
       </c>
       <c r="C16">
-        <v>0.7248944526354535</v>
+        <v>0.5975395577107463</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0690387313548797</v>
+        <v>0.1977287934664673</v>
       </c>
       <c r="F16">
-        <v>1.720476448520444</v>
+        <v>0.9840031942339067</v>
       </c>
       <c r="G16">
-        <v>1.127130027177941</v>
+        <v>0.2033238859276381</v>
       </c>
       <c r="H16">
-        <v>0.6391911136626618</v>
+        <v>0.1626371660735799</v>
       </c>
       <c r="I16">
-        <v>0.5441661952729149</v>
+        <v>0.01118104933065833</v>
       </c>
       <c r="J16">
-        <v>0.02201489730423312</v>
+        <v>0.176121809933619</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.117826051361499</v>
       </c>
       <c r="L16">
-        <v>0.6190395396800881</v>
+        <v>0.1167999165429521</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5567780470031813</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7146199697993723</v>
+      </c>
+      <c r="P16">
+        <v>1.013568956612261</v>
+      </c>
+      <c r="Q16">
+        <v>0.7507199580485775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.359380792374111</v>
+        <v>2.231456863341577</v>
       </c>
       <c r="C17">
-        <v>0.6957440746246562</v>
+        <v>0.5796457035086746</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06829082646192219</v>
+        <v>0.2239010689376961</v>
       </c>
       <c r="F17">
-        <v>1.667984065914382</v>
+        <v>1.035406596790438</v>
       </c>
       <c r="G17">
-        <v>1.087086039840926</v>
+        <v>0.2058813247207638</v>
       </c>
       <c r="H17">
-        <v>0.6238434072525649</v>
+        <v>0.124569767365017</v>
       </c>
       <c r="I17">
-        <v>0.5335774926539827</v>
+        <v>0.01051164357615342</v>
       </c>
       <c r="J17">
-        <v>0.02221316243854332</v>
+        <v>0.1793345004507216</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1224334010009702</v>
       </c>
       <c r="L17">
-        <v>0.5959097885806699</v>
+        <v>0.1005286452079304</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5714676684255267</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7406445251659264</v>
+      </c>
+      <c r="P17">
+        <v>0.9851519547242731</v>
+      </c>
+      <c r="Q17">
+        <v>0.7627714563721213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.248451839279539</v>
+        <v>2.174066481672469</v>
       </c>
       <c r="C18">
-        <v>0.67903493190002</v>
+        <v>0.5704693274788042</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06786635249013351</v>
+        <v>0.2871102402737478</v>
       </c>
       <c r="F18">
-        <v>1.638183150979785</v>
+        <v>1.170279815903385</v>
       </c>
       <c r="G18">
-        <v>1.064405329538872</v>
+        <v>0.2188908461590486</v>
       </c>
       <c r="H18">
-        <v>0.6151999506852945</v>
+        <v>0.07175295029929174</v>
       </c>
       <c r="I18">
-        <v>0.5276788428960941</v>
+        <v>0.01004825380806995</v>
       </c>
       <c r="J18">
-        <v>0.02232953816445971</v>
+        <v>0.1870665166053485</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1294979739735052</v>
       </c>
       <c r="L18">
-        <v>0.5826677725052747</v>
+        <v>0.07825009546811401</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5800663685727905</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8316878345939358</v>
+      </c>
+      <c r="P18">
+        <v>0.9452814012912825</v>
+      </c>
+      <c r="Q18">
+        <v>0.806495006650664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.2109540118052</v>
+        <v>2.147463551483554</v>
       </c>
       <c r="C19">
-        <v>0.6733868122608442</v>
+        <v>0.5725757476035369</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06772359742600464</v>
+        <v>0.3912734964415847</v>
       </c>
       <c r="F19">
-        <v>1.628158365465666</v>
+        <v>1.371365569715465</v>
       </c>
       <c r="G19">
-        <v>1.056784498461212</v>
+        <v>0.2381584898813642</v>
       </c>
       <c r="H19">
-        <v>0.6123041703843342</v>
+        <v>0.02687243339741485</v>
       </c>
       <c r="I19">
-        <v>0.5257137012064916</v>
+        <v>0.01025191809018544</v>
       </c>
       <c r="J19">
-        <v>0.0223693370863316</v>
+        <v>0.1971616407621894</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1373699947502001</v>
       </c>
       <c r="L19">
-        <v>0.5781944878910537</v>
+        <v>0.05774093386331813</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5830029924997433</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9759008114671843</v>
+      </c>
+      <c r="P19">
+        <v>0.903908295732208</v>
+      </c>
+      <c r="Q19">
+        <v>0.8684800297239832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.379940791256956</v>
+        <v>2.21820673902306</v>
       </c>
       <c r="C20">
-        <v>0.6988411118997817</v>
+        <v>0.5997740826901463</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06836984865596918</v>
+        <v>0.6045886906235651</v>
       </c>
       <c r="F20">
-        <v>1.673531010558818</v>
+        <v>1.755356819725108</v>
       </c>
       <c r="G20">
-        <v>1.091311950766737</v>
+        <v>0.2772607106826328</v>
       </c>
       <c r="H20">
-        <v>0.6254579280588928</v>
+        <v>0.002360370223771113</v>
       </c>
       <c r="I20">
-        <v>0.5346846268887688</v>
+        <v>0.01150533527837183</v>
       </c>
       <c r="J20">
-        <v>0.02219181336312737</v>
+        <v>0.2150214814828431</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1487913296774366</v>
       </c>
       <c r="L20">
-        <v>0.5983655311895149</v>
+        <v>0.04119888010088957</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5698883414613007</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.264217223648203</v>
+      </c>
+      <c r="P20">
+        <v>0.8523555605620174</v>
+      </c>
+      <c r="Q20">
+        <v>0.9889010436893955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.952352528792233</v>
+        <v>2.490443812538103</v>
       </c>
       <c r="C21">
-        <v>0.7850919152215283</v>
+        <v>0.6630535963038824</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07061040675902142</v>
+        <v>0.6804690611809647</v>
       </c>
       <c r="F21">
-        <v>1.830799480659365</v>
+        <v>1.946823758864056</v>
       </c>
       <c r="G21">
-        <v>1.211666351168134</v>
+        <v>0.305273310219377</v>
       </c>
       <c r="H21">
-        <v>0.671920555649308</v>
+        <v>0.004418057631506933</v>
       </c>
       <c r="I21">
-        <v>0.5671839420035028</v>
+        <v>0.0142717672327306</v>
       </c>
       <c r="J21">
-        <v>0.02162374271929579</v>
+        <v>0.2235601767545887</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1479367052624063</v>
       </c>
       <c r="L21">
-        <v>0.666900109990749</v>
+        <v>0.04376750238109395</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5276467215014016</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.440533265098608</v>
+      </c>
+      <c r="P21">
+        <v>0.860557209715239</v>
+      </c>
+      <c r="Q21">
+        <v>1.066470274120377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.330423712993877</v>
+        <v>2.672140340443491</v>
       </c>
       <c r="C22">
-        <v>0.8421046670003705</v>
+        <v>0.7018046474243533</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07212901405869054</v>
+        <v>0.7189686804289437</v>
       </c>
       <c r="F22">
-        <v>1.937526057312965</v>
+        <v>2.057345459612392</v>
       </c>
       <c r="G22">
-        <v>1.293912555305639</v>
+        <v>0.3235840347059167</v>
       </c>
       <c r="H22">
-        <v>0.7041373012740451</v>
+        <v>0.006063580237169908</v>
       </c>
       <c r="I22">
-        <v>0.5903425392154347</v>
+        <v>0.0159525742017248</v>
       </c>
       <c r="J22">
-        <v>0.02127469562730511</v>
+        <v>0.2292098026300096</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1477605111650924</v>
       </c>
       <c r="L22">
-        <v>0.7123226823861017</v>
+        <v>0.04591424895927609</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5014780372162484</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.543020415602172</v>
+      </c>
+      <c r="P22">
+        <v>0.8674596155313736</v>
+      </c>
+      <c r="Q22">
+        <v>1.117309560776903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.128242710320194</v>
+        <v>2.578735598385094</v>
       </c>
       <c r="C23">
-        <v>0.8116102753968164</v>
+        <v>0.6788417098137245</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07131335945289585</v>
+        <v>0.6979265313777248</v>
       </c>
       <c r="F23">
-        <v>1.880179931558615</v>
+        <v>1.999639154565344</v>
       </c>
       <c r="G23">
-        <v>1.249664512564749</v>
+        <v>0.3148612550579912</v>
       </c>
       <c r="H23">
-        <v>0.6867624650282949</v>
+        <v>0.005159079165293345</v>
       </c>
       <c r="I23">
-        <v>0.5777960068683115</v>
+        <v>0.01479492360555579</v>
       </c>
       <c r="J23">
-        <v>0.02145888204931445</v>
+        <v>0.226727394011462</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1485212406981837</v>
       </c>
       <c r="L23">
-        <v>0.6880178177004552</v>
+        <v>0.0447390878755467</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5153076902939979</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.487718161035403</v>
+      </c>
+      <c r="P23">
+        <v>0.8620664221716083</v>
+      </c>
+      <c r="Q23">
+        <v>1.093518199948534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.370644626351009</v>
+        <v>2.218424394969759</v>
       </c>
       <c r="C24">
-        <v>0.6974407876471389</v>
+        <v>0.5959183863400028</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06833410560805397</v>
+        <v>0.6193324690903239</v>
       </c>
       <c r="F24">
-        <v>1.671022065491059</v>
+        <v>1.781208816774551</v>
       </c>
       <c r="G24">
-        <v>1.089400358854306</v>
+        <v>0.2809576286501354</v>
       </c>
       <c r="H24">
-        <v>0.6247274443554147</v>
+        <v>0.002343362622133416</v>
       </c>
       <c r="I24">
-        <v>0.5341835052750454</v>
+        <v>0.01109745505298587</v>
       </c>
       <c r="J24">
-        <v>0.02220145784898797</v>
+        <v>0.2169663075893027</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1508333324885562</v>
       </c>
       <c r="L24">
-        <v>0.5972551177061689</v>
+        <v>0.04034507212083582</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5706018783896383</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.279632404149723</v>
+      </c>
+      <c r="P24">
+        <v>0.8457575660391967</v>
+      </c>
+      <c r="Q24">
+        <v>1.000809102822217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.567291707652373</v>
+        <v>1.828111690406786</v>
       </c>
       <c r="C25">
-        <v>0.5764230427091377</v>
+        <v>0.5069932718002406</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06533678438502122</v>
+        <v>0.5350695799846932</v>
       </c>
       <c r="F25">
-        <v>1.460152447235913</v>
+        <v>1.550082355885337</v>
       </c>
       <c r="G25">
-        <v>0.9297523099326952</v>
+        <v>0.2461350168571954</v>
       </c>
       <c r="H25">
-        <v>0.5647525803712199</v>
+        <v>0.0004851557621445846</v>
       </c>
       <c r="I25">
-        <v>0.4943683972554993</v>
+        <v>0.007693286575184644</v>
       </c>
       <c r="J25">
-        <v>0.02309129300937052</v>
+        <v>0.2075254793203314</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1544421884503588</v>
       </c>
       <c r="L25">
-        <v>0.5016681960545384</v>
+        <v>0.03560355036526097</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6359150770263895</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.055803512797397</v>
+      </c>
+      <c r="P25">
+        <v>0.8309208311634961</v>
+      </c>
+      <c r="Q25">
+        <v>0.9067665254349606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.547532835546491</v>
+        <v>1.516774881354706</v>
       </c>
       <c r="C2">
-        <v>0.4364626075749527</v>
+        <v>0.4479567432568956</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.47217082365907</v>
+        <v>0.4740251615076616</v>
       </c>
       <c r="F2">
-        <v>1.386460694082288</v>
+        <v>1.37502548919197</v>
       </c>
       <c r="G2">
-        <v>0.224408419348066</v>
+        <v>0.2008694020722288</v>
       </c>
       <c r="H2">
-        <v>2.702967649481636E-06</v>
+        <v>5.066983415069615E-07</v>
       </c>
       <c r="I2">
-        <v>0.005051265913137648</v>
+        <v>0.004964307370321386</v>
       </c>
       <c r="J2">
-        <v>0.2027724438571852</v>
+        <v>0.2420657027650535</v>
       </c>
       <c r="K2">
-        <v>0.1596763820230525</v>
+        <v>0.1538923825417662</v>
       </c>
       <c r="L2">
-        <v>0.03201999158746283</v>
+        <v>0.1071635214139839</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0249728016070172</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03246208234182113</v>
       </c>
       <c r="O2">
-        <v>0.889872718555992</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8184587902438025</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8504016837564308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8949479302571177</v>
+      </c>
+      <c r="R2">
+        <v>0.8327339236929632</v>
+      </c>
+      <c r="S2">
+        <v>0.8281942799904414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.351419764470506</v>
+        <v>1.329941489584087</v>
       </c>
       <c r="C3">
-        <v>0.3918963162670366</v>
+        <v>0.3974949625641386</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4303105519214085</v>
+        <v>0.4315614851544041</v>
       </c>
       <c r="F3">
-        <v>1.275279173073883</v>
+        <v>1.266933289523863</v>
       </c>
       <c r="G3">
-        <v>0.2088281904629596</v>
+        <v>0.1870911073495023</v>
       </c>
       <c r="H3">
-        <v>0.00016530932164871</v>
+        <v>0.0001824201141731319</v>
       </c>
       <c r="I3">
-        <v>0.003767778211928974</v>
+        <v>0.003828449699438075</v>
       </c>
       <c r="J3">
-        <v>0.1992347674975079</v>
+        <v>0.2382760777416451</v>
       </c>
       <c r="K3">
-        <v>0.1627266988653595</v>
+        <v>0.1576721257232592</v>
       </c>
       <c r="L3">
-        <v>0.02960658613891987</v>
+        <v>0.1119348638513866</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02427478477195866</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.02991191998167153</v>
       </c>
       <c r="O3">
-        <v>0.7782865961902132</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8134613994041473</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8097110283584072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7821203491059947</v>
+      </c>
+      <c r="R3">
+        <v>0.8223922645381734</v>
+      </c>
+      <c r="S3">
+        <v>0.7938675136188493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.230312582366423</v>
+        <v>1.214334064246714</v>
       </c>
       <c r="C4">
-        <v>0.3646628512074699</v>
+        <v>0.3667692915468592</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4046570461079355</v>
+        <v>0.4055741497538747</v>
       </c>
       <c r="F4">
-        <v>1.207673124918628</v>
+        <v>1.201141354896961</v>
       </c>
       <c r="G4">
-        <v>0.1995133103444786</v>
+        <v>0.1788593706358128</v>
       </c>
       <c r="H4">
-        <v>0.0004881393367819342</v>
+        <v>0.0005091436209649913</v>
       </c>
       <c r="I4">
-        <v>0.00308007450407688</v>
+        <v>0.003217844599937347</v>
       </c>
       <c r="J4">
-        <v>0.1972551550142683</v>
+        <v>0.2360113846513627</v>
       </c>
       <c r="K4">
-        <v>0.1647950052785863</v>
+        <v>0.1601332781320188</v>
       </c>
       <c r="L4">
-        <v>0.02811044006072905</v>
+        <v>0.1150460740155541</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02427392263520378</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.02833480538211219</v>
       </c>
       <c r="O4">
-        <v>0.7097883030631067</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8110437226310907</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7856560765883245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7128759361211365</v>
+      </c>
+      <c r="R4">
+        <v>0.8167724087270116</v>
+      </c>
+      <c r="S4">
+        <v>0.7734442935177555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.179925472843848</v>
+        <v>1.166142348421261</v>
       </c>
       <c r="C5">
-        <v>0.3541393104419939</v>
+        <v>0.354869630036319</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3943291629576606</v>
+        <v>0.3951208237264865</v>
       </c>
       <c r="F5">
-        <v>1.179924051392263</v>
+        <v>1.174110958973841</v>
       </c>
       <c r="G5">
-        <v>0.1955007600593106</v>
+        <v>0.1752882083233658</v>
       </c>
       <c r="H5">
-        <v>0.0006733707362898134</v>
+        <v>0.0006940820743488452</v>
       </c>
       <c r="I5">
-        <v>0.002878637114640092</v>
+        <v>0.003057583324628688</v>
       </c>
       <c r="J5">
-        <v>0.1963518937815962</v>
+        <v>0.2349548641196648</v>
       </c>
       <c r="K5">
-        <v>0.1655034167704414</v>
+        <v>0.160994229138586</v>
       </c>
       <c r="L5">
-        <v>0.02750361970672266</v>
+        <v>0.116253641583377</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02435118940327019</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.02769608592097228</v>
       </c>
       <c r="O5">
-        <v>0.6820189470042166</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.810578414498714</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7751900061200558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6848078549492342</v>
+      </c>
+      <c r="R5">
+        <v>0.8150332115398413</v>
+      </c>
+      <c r="S5">
+        <v>0.7643990087004937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.170494581200359</v>
+        <v>1.15707665629003</v>
       </c>
       <c r="C6">
-        <v>0.3530623147943572</v>
+        <v>0.3535847724765802</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3927581529489146</v>
+        <v>0.3935313025540239</v>
       </c>
       <c r="F6">
-        <v>1.174894341231791</v>
+        <v>1.169198916315608</v>
       </c>
       <c r="G6">
-        <v>0.1945010533086418</v>
+        <v>0.1743691295367711</v>
       </c>
       <c r="H6">
-        <v>0.0007077207677415043</v>
+        <v>0.0007282657969256423</v>
       </c>
       <c r="I6">
-        <v>0.002921545819300597</v>
+        <v>0.003124418221668535</v>
       </c>
       <c r="J6">
-        <v>0.1960296960669297</v>
+        <v>0.2345987245750294</v>
       </c>
       <c r="K6">
-        <v>0.1654020426293137</v>
+        <v>0.1609247869563664</v>
       </c>
       <c r="L6">
-        <v>0.02741113203410706</v>
+        <v>0.1163282739964124</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02433430378279988</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.02759878433666607</v>
       </c>
       <c r="O6">
-        <v>0.6775852311767565</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8109542694083487</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7723842756993804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.680325920642062</v>
+      </c>
+      <c r="R6">
+        <v>0.8152121925077651</v>
+      </c>
+      <c r="S6">
+        <v>0.7618353666700273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.226746297156126</v>
+        <v>1.209839952533429</v>
       </c>
       <c r="C7">
-        <v>0.3663524508810099</v>
+        <v>0.3678965358094501</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4049103976246542</v>
+        <v>0.406196788148506</v>
       </c>
       <c r="F7">
-        <v>1.206121331860928</v>
+        <v>1.198919937564767</v>
       </c>
       <c r="G7">
-        <v>0.1985379799964235</v>
+        <v>0.1801958948313995</v>
       </c>
       <c r="H7">
-        <v>0.000491406733845956</v>
+        <v>0.0005132332249173643</v>
       </c>
       <c r="I7">
-        <v>0.00326800026194185</v>
+        <v>0.003446912702280258</v>
       </c>
       <c r="J7">
-        <v>0.1967651166953175</v>
+        <v>0.2320933719230851</v>
       </c>
       <c r="K7">
-        <v>0.1641991238652185</v>
+        <v>0.159363111069986</v>
       </c>
       <c r="L7">
-        <v>0.02812567595544557</v>
+        <v>0.1146076223817118</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0241274270934948</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.02836691366318433</v>
       </c>
       <c r="O7">
-        <v>0.7098993617297609</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8122612859946656</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7825606494460828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.712951464476852</v>
+      </c>
+      <c r="R7">
+        <v>0.8184915157198773</v>
+      </c>
+      <c r="S7">
+        <v>0.768428428181096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.476197954584421</v>
+        <v>1.445461467022312</v>
       </c>
       <c r="C8">
-        <v>0.423516505094625</v>
+        <v>0.4310241364547096</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4582487223853491</v>
+        <v>0.4611266076280742</v>
       </c>
       <c r="F8">
-        <v>1.346422296178716</v>
+        <v>1.333812681293495</v>
       </c>
       <c r="G8">
-        <v>0.217760322070383</v>
+        <v>0.2025417424326577</v>
       </c>
       <c r="H8">
-        <v>1.09890351041031E-05</v>
+        <v>1.769099899240345E-05</v>
       </c>
       <c r="I8">
-        <v>0.004815574814893253</v>
+        <v>0.004823332086510312</v>
       </c>
       <c r="J8">
-        <v>0.2008809383281331</v>
+        <v>0.229017135271782</v>
       </c>
       <c r="K8">
-        <v>0.1598905649153721</v>
+        <v>0.1537640900524835</v>
       </c>
       <c r="L8">
-        <v>0.03122196399097632</v>
+        <v>0.1080498697142804</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02428432223754129</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.03167351483678615</v>
       </c>
       <c r="O8">
-        <v>0.8520367996048321</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8182745302053931</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.832260538743256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8565667434882585</v>
+      </c>
+      <c r="R8">
+        <v>0.8324190795449482</v>
+      </c>
+      <c r="S8">
+        <v>0.8058375649239053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.965132595524608</v>
+        <v>1.909124821713135</v>
       </c>
       <c r="C9">
-        <v>0.5335097075883937</v>
+        <v>0.5557818320525314</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5626807635998148</v>
+        <v>0.5676299440140724</v>
       </c>
       <c r="F9">
-        <v>1.629515733797589</v>
+        <v>1.608076435385115</v>
       </c>
       <c r="G9">
-        <v>0.2593117060734187</v>
+        <v>0.2416084513071084</v>
       </c>
       <c r="H9">
-        <v>0.0009672574625188002</v>
+        <v>0.0008713084861993181</v>
       </c>
       <c r="I9">
-        <v>0.008440014717381317</v>
+        <v>0.007930997188035249</v>
       </c>
       <c r="J9">
-        <v>0.2114210927083704</v>
+        <v>0.236376838403288</v>
       </c>
       <c r="K9">
-        <v>0.1541516460792867</v>
+        <v>0.1457015010122049</v>
       </c>
       <c r="L9">
-        <v>0.03715954138274569</v>
+        <v>0.09756714535938471</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02842314014925584</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.03798540886411139</v>
       </c>
       <c r="O9">
-        <v>1.130260711482748</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8331770844166329</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9430138263775518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.13791772835782</v>
+      </c>
+      <c r="R9">
+        <v>0.8616164970945022</v>
+      </c>
+      <c r="S9">
+        <v>0.8972481278435538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.32054251186878</v>
+        <v>2.239634326062856</v>
       </c>
       <c r="C10">
-        <v>0.6154787635201728</v>
+        <v>0.6452173592558097</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6190783968215143</v>
+        <v>0.627646130223475</v>
       </c>
       <c r="F10">
-        <v>1.807442240005116</v>
+        <v>1.775635801849774</v>
       </c>
       <c r="G10">
-        <v>0.2878882271796925</v>
+        <v>0.2823971658436761</v>
       </c>
       <c r="H10">
-        <v>0.003017588502277402</v>
+        <v>0.002793833449146188</v>
       </c>
       <c r="I10">
-        <v>0.01180316382160207</v>
+        <v>0.01081565908737137</v>
       </c>
       <c r="J10">
-        <v>0.2184956434911101</v>
+        <v>0.2224621736304684</v>
       </c>
       <c r="K10">
-        <v>0.1495408226161743</v>
+        <v>0.1382612373532179</v>
       </c>
       <c r="L10">
-        <v>0.04248013826459918</v>
+        <v>0.08994397886845462</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03260397916128177</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.04380862526898532</v>
       </c>
       <c r="O10">
-        <v>1.311235537330234</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8534926129750602</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.018809896759478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.320839187161781</v>
+      </c>
+      <c r="R10">
+        <v>0.8960730894488194</v>
+      </c>
+      <c r="S10">
+        <v>0.9469024050093395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.484859623295961</v>
+        <v>2.387056941679759</v>
       </c>
       <c r="C11">
-        <v>0.649196707077266</v>
+        <v>0.6726323370333205</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4770384408292188</v>
+        <v>0.4874313268783013</v>
       </c>
       <c r="F11">
-        <v>1.601532019543811</v>
+        <v>1.563909612747125</v>
       </c>
       <c r="G11">
-        <v>0.2727709984138542</v>
+        <v>0.2985076788807248</v>
       </c>
       <c r="H11">
-        <v>0.02129651796251153</v>
+        <v>0.02105461723201785</v>
       </c>
       <c r="I11">
-        <v>0.01338466735558885</v>
+        <v>0.01224811864420072</v>
       </c>
       <c r="J11">
-        <v>0.20781214163285</v>
+        <v>0.1797503900172117</v>
       </c>
       <c r="K11">
-        <v>0.1364815204836844</v>
+        <v>0.1243514331769475</v>
       </c>
       <c r="L11">
-        <v>0.0586947340473607</v>
+        <v>0.08324135704759517</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03007128963042049</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06166251874813966</v>
       </c>
       <c r="O11">
-        <v>1.188677289751823</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9127596441429517</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9645384930798002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.197365389205899</v>
+      </c>
+      <c r="R11">
+        <v>0.96850396378494</v>
+      </c>
+      <c r="S11">
+        <v>0.8709504236777548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.553840954002851</v>
+        <v>2.450641530286589</v>
       </c>
       <c r="C12">
-        <v>0.6571561521159879</v>
+        <v>0.6756847372602977</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3643359544681957</v>
+        <v>0.3734808793157853</v>
       </c>
       <c r="F12">
-        <v>1.402904464094632</v>
+        <v>1.365555652415722</v>
       </c>
       <c r="G12">
-        <v>0.2554746973326729</v>
+        <v>0.2956280674761871</v>
       </c>
       <c r="H12">
-        <v>0.05953790181506946</v>
+        <v>0.05930898663042683</v>
       </c>
       <c r="I12">
-        <v>0.01366327573556703</v>
+        <v>0.01244560975181397</v>
       </c>
       <c r="J12">
-        <v>0.1979500998810479</v>
+        <v>0.1602816206666873</v>
       </c>
       <c r="K12">
-        <v>0.1275428502546188</v>
+        <v>0.1159951427334835</v>
       </c>
       <c r="L12">
-        <v>0.07837347868302658</v>
+        <v>0.07991852767212837</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02756557114767588</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08271074073049078</v>
       </c>
       <c r="O12">
-        <v>1.052653866393804</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9595824610190249</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9072662122377437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.06034262645435</v>
+      </c>
+      <c r="R12">
+        <v>1.021526291193013</v>
+      </c>
+      <c r="S12">
+        <v>0.8086449712463519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.548275819606829</v>
+        <v>2.451289495748426</v>
       </c>
       <c r="C13">
-        <v>0.6486162730505214</v>
+        <v>0.6648420926049425</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2685571900484156</v>
+        <v>0.2742449114347494</v>
       </c>
       <c r="F13">
-        <v>1.197354313008802</v>
+        <v>1.165658202195672</v>
       </c>
       <c r="G13">
-        <v>0.2340095571780267</v>
+        <v>0.2702369420685073</v>
       </c>
       <c r="H13">
-        <v>0.1147242170701048</v>
+        <v>0.1145335433698165</v>
       </c>
       <c r="I13">
-        <v>0.01322444465121286</v>
+        <v>0.01207222895714466</v>
       </c>
       <c r="J13">
-        <v>0.1873580525709997</v>
+        <v>0.1569957071704167</v>
       </c>
       <c r="K13">
-        <v>0.1202481231900059</v>
+        <v>0.1106752280060554</v>
       </c>
       <c r="L13">
-        <v>0.1015813792419351</v>
+        <v>0.07838500009900606</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02482430043931849</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1066813604686843</v>
       </c>
       <c r="O13">
-        <v>0.9001191652717466</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.000644025593843</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8395517562023826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9067648953768526</v>
+      </c>
+      <c r="R13">
+        <v>1.061377119047805</v>
+      </c>
+      <c r="S13">
+        <v>0.7520744770368708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.509661563533768</v>
+        <v>2.422207415968842</v>
       </c>
       <c r="C14">
-        <v>0.6357759079314178</v>
+        <v>0.6515134707194932</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.212294147724915</v>
+        <v>0.2151451905319739</v>
       </c>
       <c r="F14">
-        <v>1.05285737786005</v>
+        <v>1.026956733397896</v>
       </c>
       <c r="G14">
-        <v>0.2170212078822971</v>
+        <v>0.2432426492781232</v>
       </c>
       <c r="H14">
-        <v>0.1636609381829572</v>
+        <v>0.1635043359752189</v>
       </c>
       <c r="I14">
-        <v>0.01267089382444198</v>
+        <v>0.01164339043543539</v>
       </c>
       <c r="J14">
-        <v>0.179550391679733</v>
+        <v>0.1607933524140037</v>
       </c>
       <c r="K14">
-        <v>0.1158148909226693</v>
+        <v>0.1081171455553758</v>
       </c>
       <c r="L14">
-        <v>0.1201786124125448</v>
+        <v>0.0779633605979253</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02280589957492118</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1253733134383097</v>
       </c>
       <c r="O14">
-        <v>0.78790899670323</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.027272476219551</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7871326369289449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7937991690113577</v>
+      </c>
+      <c r="R14">
+        <v>1.083572211252573</v>
+      </c>
+      <c r="S14">
+        <v>0.7138462011953237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.483020727945643</v>
+        <v>2.400153110312772</v>
       </c>
       <c r="C15">
-        <v>0.6299289193513289</v>
+        <v>0.646006327062338</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1998163758685507</v>
+        <v>0.2018178232566186</v>
       </c>
       <c r="F15">
-        <v>1.014761793061652</v>
+        <v>0.9910689873110812</v>
       </c>
       <c r="G15">
-        <v>0.2117039573159261</v>
+        <v>0.2325292469036881</v>
       </c>
       <c r="H15">
-        <v>0.1760165526429347</v>
+        <v>0.1758737195502107</v>
       </c>
       <c r="I15">
-        <v>0.01247887703591832</v>
+        <v>0.0115345365404913</v>
       </c>
       <c r="J15">
-        <v>0.1773542230787726</v>
+        <v>0.1643966247495143</v>
       </c>
       <c r="K15">
-        <v>0.1148895568944059</v>
+        <v>0.1078794804253818</v>
       </c>
       <c r="L15">
-        <v>0.124516740052151</v>
+        <v>0.07811126977730076</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02220296138110456</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1295483548533198</v>
       </c>
       <c r="O15">
-        <v>0.7566611537465633</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.032663255210039</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7712308983824698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7623434181157904</v>
+      </c>
+      <c r="R15">
+        <v>1.086367197909425</v>
+      </c>
+      <c r="S15">
+        <v>0.7041801397528218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.32898110892819</v>
+        <v>2.265280008994694</v>
       </c>
       <c r="C16">
-        <v>0.5975395577107463</v>
+        <v>0.6167230260407734</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1977287934664673</v>
+        <v>0.1979721740791867</v>
       </c>
       <c r="F16">
-        <v>0.9840031942339067</v>
+        <v>0.9674389448712475</v>
       </c>
       <c r="G16">
-        <v>0.2033238859276381</v>
+        <v>0.2002225362737917</v>
       </c>
       <c r="H16">
-        <v>0.1626371660735799</v>
+        <v>0.1625493003935503</v>
       </c>
       <c r="I16">
-        <v>0.01118104933065833</v>
+        <v>0.01053048731214901</v>
       </c>
       <c r="J16">
-        <v>0.176121809933619</v>
+        <v>0.1899958531149295</v>
       </c>
       <c r="K16">
-        <v>0.117826051361499</v>
+        <v>0.1126886706435997</v>
       </c>
       <c r="L16">
-        <v>0.1167999165429521</v>
+        <v>0.08101422960762861</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02160658545296279</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.120418964375979</v>
       </c>
       <c r="O16">
-        <v>0.7146199697993723</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.013568956612261</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7507199580485775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7200092460926868</v>
+      </c>
+      <c r="R16">
+        <v>1.0544371371182</v>
+      </c>
+      <c r="S16">
+        <v>0.7071392866571813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.231456863341577</v>
+        <v>2.175551413855374</v>
       </c>
       <c r="C17">
-        <v>0.5796457035086746</v>
+        <v>0.6004519553681007</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2239010689376961</v>
+        <v>0.2239841439483108</v>
       </c>
       <c r="F17">
-        <v>1.035406596790438</v>
+        <v>1.020978890242773</v>
       </c>
       <c r="G17">
-        <v>0.2058813247207638</v>
+        <v>0.1927013615786919</v>
       </c>
       <c r="H17">
-        <v>0.124569767365017</v>
+        <v>0.1245038515614851</v>
       </c>
       <c r="I17">
-        <v>0.01051164357615342</v>
+        <v>0.01000998653555296</v>
       </c>
       <c r="J17">
-        <v>0.1793345004507216</v>
+        <v>0.2057485316368215</v>
       </c>
       <c r="K17">
-        <v>0.1224334010009702</v>
+        <v>0.1176658034193583</v>
       </c>
       <c r="L17">
-        <v>0.1005286452079304</v>
+        <v>0.08363452803401383</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02209457366333112</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1033560751368086</v>
       </c>
       <c r="O17">
-        <v>0.7406445251659264</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9851519547242731</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7627714563721213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.746166784136534</v>
+      </c>
+      <c r="R17">
+        <v>1.020146257761709</v>
+      </c>
+      <c r="S17">
+        <v>0.72769922756261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.174066481672469</v>
+        <v>2.119604892620146</v>
       </c>
       <c r="C18">
-        <v>0.5704693274788042</v>
+        <v>0.5931534351874461</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2871102402737478</v>
+        <v>0.2879065232200801</v>
       </c>
       <c r="F18">
-        <v>1.170279815903385</v>
+        <v>1.15515636452399</v>
       </c>
       <c r="G18">
-        <v>0.2188908461590486</v>
+        <v>0.2005735437155849</v>
       </c>
       <c r="H18">
-        <v>0.07175295029929174</v>
+        <v>0.07168673622037147</v>
       </c>
       <c r="I18">
-        <v>0.01004825380806995</v>
+        <v>0.009553823014769591</v>
       </c>
       <c r="J18">
-        <v>0.1870665166053485</v>
+        <v>0.2186647746838162</v>
       </c>
       <c r="K18">
-        <v>0.1294979739735052</v>
+        <v>0.1241356994199467</v>
       </c>
       <c r="L18">
-        <v>0.07825009546811401</v>
+        <v>0.08658262521890414</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.023770793179823</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08051957955590439</v>
       </c>
       <c r="O18">
-        <v>0.8316878345939358</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9452814012912825</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.806495006650664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8378079391792639</v>
+      </c>
+      <c r="R18">
+        <v>0.9778828903181562</v>
+      </c>
+      <c r="S18">
+        <v>0.7719930775804045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.147463551483554</v>
+        <v>2.09038255739523</v>
       </c>
       <c r="C19">
-        <v>0.5725757476035369</v>
+        <v>0.5979245760363199</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3912734964415847</v>
+        <v>0.39345864555807</v>
       </c>
       <c r="F19">
-        <v>1.371365569715465</v>
+        <v>1.353589699150916</v>
       </c>
       <c r="G19">
-        <v>0.2381584898813642</v>
+        <v>0.2170500056024309</v>
       </c>
       <c r="H19">
-        <v>0.02687243339741485</v>
+        <v>0.02678416363675495</v>
       </c>
       <c r="I19">
-        <v>0.01025191809018544</v>
+        <v>0.009770058263251613</v>
       </c>
       <c r="J19">
-        <v>0.1971616407621894</v>
+        <v>0.2296596858174098</v>
       </c>
       <c r="K19">
-        <v>0.1373699947502001</v>
+        <v>0.1308264122466731</v>
       </c>
       <c r="L19">
-        <v>0.05774093386331813</v>
+        <v>0.08934075482389403</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02607763425034548</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05952042094444465</v>
       </c>
       <c r="O19">
-        <v>0.9759008114671843</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.903908295732208</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8684800297239832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9830218024697928</v>
+      </c>
+      <c r="R19">
+        <v>0.9362992072512668</v>
+      </c>
+      <c r="S19">
+        <v>0.829658695452423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.21820673902306</v>
+        <v>2.147662484586306</v>
       </c>
       <c r="C20">
-        <v>0.5997740826901463</v>
+        <v>0.6300284939773348</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6045886906235651</v>
+        <v>0.6108546940488679</v>
       </c>
       <c r="F20">
-        <v>1.755356819725108</v>
+        <v>1.72878790889601</v>
       </c>
       <c r="G20">
-        <v>0.2772607106826328</v>
+        <v>0.2600565094154135</v>
       </c>
       <c r="H20">
-        <v>0.002360370223771113</v>
+        <v>0.0021799100621398</v>
       </c>
       <c r="I20">
-        <v>0.01150533527837183</v>
+        <v>0.01083794876208177</v>
       </c>
       <c r="J20">
-        <v>0.2150214814828431</v>
+        <v>0.2357276292715085</v>
       </c>
       <c r="K20">
-        <v>0.1487913296774366</v>
+        <v>0.1391179107553135</v>
       </c>
       <c r="L20">
-        <v>0.04119888010088957</v>
+        <v>0.09147735099013055</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03097464418519813</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.04233403713586448</v>
       </c>
       <c r="O20">
-        <v>1.264217223648203</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8523555605620174</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9889010436893955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.273452231458421</v>
+      </c>
+      <c r="R20">
+        <v>0.8894676525547283</v>
+      </c>
+      <c r="S20">
+        <v>0.9313670842565642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.490443812538103</v>
+        <v>2.380489202884633</v>
       </c>
       <c r="C21">
-        <v>0.6630535963038824</v>
+        <v>0.6877816015149847</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6804690611809647</v>
+        <v>0.6975153301913863</v>
       </c>
       <c r="F21">
-        <v>1.946823758864056</v>
+        <v>1.898126405190766</v>
       </c>
       <c r="G21">
-        <v>0.305273310219377</v>
+        <v>0.3448367157482579</v>
       </c>
       <c r="H21">
-        <v>0.004418057631506933</v>
+        <v>0.004074656982766656</v>
       </c>
       <c r="I21">
-        <v>0.0142717672327306</v>
+        <v>0.01304004845865503</v>
       </c>
       <c r="J21">
-        <v>0.2235601767545887</v>
+        <v>0.177109348135339</v>
       </c>
       <c r="K21">
-        <v>0.1479367052624063</v>
+        <v>0.1321846136833109</v>
       </c>
       <c r="L21">
-        <v>0.04376750238109395</v>
+        <v>0.08559744517546442</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03402963035209083</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.04548570221714066</v>
       </c>
       <c r="O21">
-        <v>1.440533265098608</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.860557209715239</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.066470274120377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.450773431808031</v>
+      </c>
+      <c r="R21">
+        <v>0.9193658978929733</v>
+      </c>
+      <c r="S21">
+        <v>0.9498172980097337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.672140340443491</v>
+        <v>2.534515128552755</v>
       </c>
       <c r="C22">
-        <v>0.7018046474243533</v>
+        <v>0.7216524819117467</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7189686804289437</v>
+        <v>0.7438129841271888</v>
       </c>
       <c r="F22">
-        <v>2.057345459612392</v>
+        <v>1.993042485252531</v>
       </c>
       <c r="G22">
-        <v>0.3235840347059167</v>
+        <v>0.4083642540390855</v>
       </c>
       <c r="H22">
-        <v>0.006063580237169908</v>
+        <v>0.005594373086186044</v>
       </c>
       <c r="I22">
-        <v>0.0159525742017248</v>
+        <v>0.01424889038754618</v>
       </c>
       <c r="J22">
-        <v>0.2292098026300096</v>
+        <v>0.1453947184513922</v>
       </c>
       <c r="K22">
-        <v>0.1477605111650924</v>
+        <v>0.1277260803717102</v>
       </c>
       <c r="L22">
-        <v>0.04591424895927609</v>
+        <v>0.08202809064870564</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03623946478651163</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.04809948570537159</v>
       </c>
       <c r="O22">
-        <v>1.543020415602172</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8674596155313736</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.117309560776903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.55374061277891</v>
+      </c>
+      <c r="R22">
+        <v>0.9417122691571791</v>
+      </c>
+      <c r="S22">
+        <v>0.9587363829916455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.578735598385094</v>
+        <v>2.458533015058435</v>
       </c>
       <c r="C23">
-        <v>0.6788417098137245</v>
+        <v>0.7028858619992207</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6979265313777248</v>
+        <v>0.7175006403514459</v>
       </c>
       <c r="F23">
-        <v>1.999639154565344</v>
+        <v>1.945529585373166</v>
       </c>
       <c r="G23">
-        <v>0.3148612550579912</v>
+        <v>0.3680441847671574</v>
       </c>
       <c r="H23">
-        <v>0.005159079165293345</v>
+        <v>0.004763103262578672</v>
       </c>
       <c r="I23">
-        <v>0.01479492360555579</v>
+        <v>0.01329583189351435</v>
       </c>
       <c r="J23">
-        <v>0.226727394011462</v>
+        <v>0.1670780441511042</v>
       </c>
       <c r="K23">
-        <v>0.1485212406981837</v>
+        <v>0.1311565386023457</v>
       </c>
       <c r="L23">
-        <v>0.0447390878755467</v>
+        <v>0.0842401724544537</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03552146270812884</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.0466171637125754</v>
       </c>
       <c r="O23">
-        <v>1.487718161035403</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8620664221716083</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.093518199948534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.498285439118888</v>
+      </c>
+      <c r="R23">
+        <v>0.9263461635723758</v>
+      </c>
+      <c r="S23">
+        <v>0.96227162296438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.218424394969759</v>
+        <v>2.147812333628053</v>
       </c>
       <c r="C24">
-        <v>0.5959183863400028</v>
+        <v>0.6263013827305031</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6193324690903239</v>
+        <v>0.6257143874092179</v>
       </c>
       <c r="F24">
-        <v>1.781208816774551</v>
+        <v>1.754423664860667</v>
       </c>
       <c r="G24">
-        <v>0.2809576286501354</v>
+        <v>0.2631063716266979</v>
       </c>
       <c r="H24">
-        <v>0.002343362622133416</v>
+        <v>0.00215885385752479</v>
       </c>
       <c r="I24">
-        <v>0.01109745505298587</v>
+        <v>0.01032883180603772</v>
       </c>
       <c r="J24">
-        <v>0.2169663075893027</v>
+        <v>0.2381501098506646</v>
       </c>
       <c r="K24">
-        <v>0.1508333324885562</v>
+        <v>0.1409497931524317</v>
       </c>
       <c r="L24">
-        <v>0.04034507212083582</v>
+        <v>0.09221187989440338</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03162208053984017</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04139480868959922</v>
       </c>
       <c r="O24">
-        <v>1.279632404149723</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8457575660391967</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.000809102822217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.288970399721848</v>
+      </c>
+      <c r="R24">
+        <v>0.8824746723552295</v>
+      </c>
+      <c r="S24">
+        <v>0.9429209700037262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.828111690406786</v>
+        <v>1.780589174050561</v>
       </c>
       <c r="C25">
-        <v>0.5069932718002406</v>
+        <v>0.5261851564410449</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5350695799846932</v>
+        <v>0.5389017953841915</v>
       </c>
       <c r="F25">
-        <v>1.550082355885337</v>
+        <v>1.53209021676939</v>
       </c>
       <c r="G25">
-        <v>0.2461350168571954</v>
+        <v>0.2258326252581782</v>
       </c>
       <c r="H25">
-        <v>0.0004851557621445846</v>
+        <v>0.0004264576662558195</v>
       </c>
       <c r="I25">
-        <v>0.007693286575184644</v>
+        <v>0.007433562216484724</v>
       </c>
       <c r="J25">
-        <v>0.2075254793203314</v>
+        <v>0.2381497853807772</v>
       </c>
       <c r="K25">
-        <v>0.1544421884503588</v>
+        <v>0.147025908830555</v>
       </c>
       <c r="L25">
-        <v>0.03560355036526097</v>
+        <v>0.09993739103585142</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02669003081661536</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.0363059920863158</v>
       </c>
       <c r="O25">
-        <v>1.055803512797397</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8309208311634961</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9067665254349606</v>
+        <v>1.062664553205089</v>
+      </c>
+      <c r="R25">
+        <v>0.854813580350438</v>
+      </c>
+      <c r="S25">
+        <v>0.8694501107893871</v>
       </c>
     </row>
   </sheetData>
